--- a/data/trans_orig/P19C07-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C07-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0221A250-942B-454A-BBE2-65F13FBE98A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{085DCE4C-A867-478D-9447-FE845B46D6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{61CBB2FE-CE33-4327-9E96-6D8E8D8F5295}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AE0D8F51-BDF4-49C3-AEC0-215CF00092D0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="537">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -77,25 +77,28 @@
     <t>1,95%</t>
   </si>
   <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
     <t>0,49%</t>
   </si>
   <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
+    <t>4,42%</t>
   </si>
   <si>
     <t>1,93%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,25 +107,28 @@
     <t>98,05%</t>
   </si>
   <si>
-    <t>95,55%</t>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
   </si>
   <si>
     <t>99,51%</t>
   </si>
   <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
     <t>98,07%</t>
   </si>
   <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,1552 +140,1516 @@
     <t>3,02%</t>
   </si>
   <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
   </si>
   <si>
     <t>4,24%</t>
   </si>
   <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
   </si>
   <si>
     <t>3,65%</t>
   </si>
   <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2012 (Tasa respuesta: 86,84%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2015 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
     <t>2,5%</t>
   </si>
   <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
   </si>
   <si>
     <t>97,5%</t>
   </si>
   <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2012 (Tasa respuesta: 86,84%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
   </si>
   <si>
     <t>4,8%</t>
   </si>
   <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
   </si>
   <si>
     <t>95,2%</t>
   </si>
   <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
+    <t>96,64%</t>
   </si>
 </sst>
 </file>
@@ -2091,7 +2061,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7AF0A0F-3A8F-4DE2-ADF5-0C8DD111558D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2BD109-DE76-4BCD-BAA0-7097F5C8632C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2233,10 +2203,10 @@
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -2245,19 +2215,19 @@
         <v>7575</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>187</v>
@@ -2266,13 +2236,13 @@
         <v>187765</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>186</v>
@@ -2281,13 +2251,13 @@
         <v>197375</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>373</v>
@@ -2296,13 +2266,13 @@
         <v>385141</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2317,13 +2287,13 @@
         <v>191493</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>191</v>
@@ -2332,13 +2302,13 @@
         <v>201222</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>382</v>
@@ -2347,18 +2317,18 @@
         <v>392716</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2370,13 +2340,13 @@
         <v>12387</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -2385,13 +2355,13 @@
         <v>18702</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>29</v>
@@ -2400,19 +2370,19 @@
         <v>31089</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>373</v>
@@ -2421,13 +2391,13 @@
         <v>397369</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>420</v>
@@ -2436,13 +2406,13 @@
         <v>422499</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>793</v>
@@ -2451,13 +2421,13 @@
         <v>819868</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2472,13 +2442,13 @@
         <v>409756</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>438</v>
@@ -2487,13 +2457,13 @@
         <v>441201</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>822</v>
@@ -2502,18 +2472,18 @@
         <v>850957</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2525,13 +2495,13 @@
         <v>3998</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -2540,13 +2510,13 @@
         <v>5774</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -2555,19 +2525,19 @@
         <v>9773</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>227</v>
@@ -2576,13 +2546,13 @@
         <v>232539</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>282</v>
@@ -2591,13 +2561,13 @@
         <v>283032</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>509</v>
@@ -2606,13 +2576,13 @@
         <v>515570</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2627,13 +2597,13 @@
         <v>236537</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>288</v>
@@ -2642,13 +2612,13 @@
         <v>288806</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>519</v>
@@ -2657,18 +2627,18 @@
         <v>525343</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2680,13 +2650,13 @@
         <v>8198</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -2695,13 +2665,13 @@
         <v>18313</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>27</v>
@@ -2710,19 +2680,19 @@
         <v>26510</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>260</v>
@@ -2731,13 +2701,13 @@
         <v>259333</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>289</v>
@@ -2746,13 +2716,13 @@
         <v>281221</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>549</v>
@@ -2761,13 +2731,13 @@
         <v>540555</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2782,13 +2752,13 @@
         <v>267531</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>308</v>
@@ -2797,13 +2767,13 @@
         <v>299534</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>576</v>
@@ -2812,18 +2782,18 @@
         <v>567065</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2835,13 +2805,13 @@
         <v>8242</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -2850,13 +2820,13 @@
         <v>6623</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -2865,19 +2835,19 @@
         <v>14866</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>162</v>
@@ -2886,13 +2856,13 @@
         <v>162036</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>160</v>
@@ -2901,13 +2871,13 @@
         <v>167283</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>322</v>
@@ -2916,13 +2886,13 @@
         <v>329318</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2937,13 +2907,13 @@
         <v>170278</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>166</v>
@@ -2952,13 +2922,13 @@
         <v>173906</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>337</v>
@@ -2967,18 +2937,18 @@
         <v>344184</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2990,13 +2960,13 @@
         <v>1894</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -3005,13 +2975,13 @@
         <v>3943</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -3020,19 +2990,19 @@
         <v>5837</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>184</v>
@@ -3041,13 +3011,13 @@
         <v>187376</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>195</v>
@@ -3056,13 +3026,13 @@
         <v>200545</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="M20" s="7">
         <v>379</v>
@@ -3071,13 +3041,13 @@
         <v>387921</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3092,13 +3062,13 @@
         <v>189270</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>199</v>
@@ -3107,13 +3077,13 @@
         <v>204488</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>385</v>
@@ -3122,13 +3092,13 @@
         <v>393758</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3187,7 +3157,7 @@
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>436</v>
@@ -3247,13 +3217,13 @@
         <v>464325</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>524</v>
@@ -3262,13 +3232,13 @@
         <v>539368</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>978</v>
@@ -3277,13 +3247,13 @@
         <v>1003692</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,10 +3273,10 @@
         <v>140</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H25" s="7">
         <v>22</v>
@@ -3315,13 +3285,13 @@
         <v>22359</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M25" s="7">
         <v>50</v>
@@ -3330,19 +3300,19 @@
         <v>50979</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>494</v>
@@ -3351,13 +3321,13 @@
         <v>496932</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="H26" s="7">
         <v>543</v>
@@ -3366,13 +3336,13 @@
         <v>570053</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M26" s="7">
         <v>1037</v>
@@ -3381,13 +3351,13 @@
         <v>1066984</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,13 +3372,13 @@
         <v>525552</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>565</v>
@@ -3417,13 +3387,13 @@
         <v>592412</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1087</v>
@@ -3432,13 +3402,13 @@
         <v>1117963</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3455,13 +3425,13 @@
         <v>84321</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H28" s="7">
         <v>95</v>
@@ -3470,13 +3440,13 @@
         <v>95091</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M28" s="7">
         <v>179</v>
@@ -3485,19 +3455,19 @@
         <v>179412</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>2323</v>
@@ -3506,13 +3476,13 @@
         <v>2370421</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H29" s="7">
         <v>2584</v>
@@ -3521,13 +3491,13 @@
         <v>2645846</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M29" s="7">
         <v>4907</v>
@@ -3536,13 +3506,13 @@
         <v>5016267</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3557,13 +3527,13 @@
         <v>2454742</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>2679</v>
@@ -3572,13 +3542,13 @@
         <v>2740937</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>5086</v>
@@ -3587,18 +3557,18 @@
         <v>5195679</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3622,7 +3592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{627DDA80-24C8-48FB-B1B4-AB54BE13B0D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EAEE4B3-9C3E-43A8-A53E-33D0BC027926}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3639,7 +3609,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3744,84 +3714,84 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3834,44 +3804,44 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3883,13 +3853,13 @@
         <v>18013</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -3898,13 +3868,13 @@
         <v>11241</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M7" s="7">
         <v>28</v>
@@ -3913,19 +3883,19 @@
         <v>29254</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>364</v>
@@ -3934,13 +3904,13 @@
         <v>388317</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="H8" s="7">
         <v>392</v>
@@ -3964,7 +3934,7 @@
         <v>814899</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>191</v>
@@ -3985,13 +3955,13 @@
         <v>406330</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>402</v>
@@ -4000,13 +3970,13 @@
         <v>437823</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>784</v>
@@ -4015,18 +3985,18 @@
         <v>844153</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4038,7 +4008,7 @@
         <v>7555</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>193</v>
@@ -4074,13 +4044,13 @@
         <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>281</v>
@@ -4092,10 +4062,10 @@
         <v>188</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H11" s="7">
         <v>292</v>
@@ -4104,13 +4074,13 @@
         <v>315846</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M11" s="7">
         <v>573</v>
@@ -4119,13 +4089,13 @@
         <v>601955</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4140,13 +4110,13 @@
         <v>293664</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>305</v>
@@ -4155,13 +4125,13 @@
         <v>328752</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>594</v>
@@ -4170,18 +4140,18 @@
         <v>622416</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4193,13 +4163,13 @@
         <v>18808</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -4208,13 +4178,13 @@
         <v>26564</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -4226,16 +4196,16 @@
         <v>195</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>215</v>
+        <v>162</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>514</v>
@@ -4244,13 +4214,13 @@
         <v>544829</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H14" s="7">
         <v>524</v>
@@ -4259,13 +4229,13 @@
         <v>565490</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M14" s="7">
         <v>1038</v>
@@ -4274,13 +4244,13 @@
         <v>1110318</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>224</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,13 +4265,13 @@
         <v>563637</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>548</v>
@@ -4310,13 +4280,13 @@
         <v>592054</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>1078</v>
@@ -4325,18 +4295,18 @@
         <v>1155691</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4348,13 +4318,13 @@
         <v>5060</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -4363,13 +4333,13 @@
         <v>5843</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>228</v>
+        <v>165</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -4378,19 +4348,19 @@
         <v>10902</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>232</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>171</v>
@@ -4399,13 +4369,13 @@
         <v>186998</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="H17" s="7">
         <v>182</v>
@@ -4414,13 +4384,13 @@
         <v>188739</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>237</v>
+        <v>175</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="M17" s="7">
         <v>353</v>
@@ -4429,13 +4399,13 @@
         <v>375738</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>242</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,13 +4420,13 @@
         <v>192058</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>188</v>
@@ -4465,13 +4435,13 @@
         <v>194582</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>364</v>
@@ -4480,18 +4450,18 @@
         <v>386640</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4503,13 +4473,13 @@
         <v>6996</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>244</v>
+        <v>18</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>32</v>
+        <v>236</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -4518,13 +4488,13 @@
         <v>12361</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="M19" s="7">
         <v>18</v>
@@ -4533,19 +4503,19 @@
         <v>19358</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>248</v>
+        <v>19</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>122</v>
+        <v>240</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>231</v>
@@ -4554,13 +4524,13 @@
         <v>242977</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>40</v>
+        <v>243</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>251</v>
+        <v>29</v>
       </c>
       <c r="H20" s="7">
         <v>243</v>
@@ -4569,13 +4539,13 @@
         <v>252469</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="M20" s="7">
         <v>474</v>
@@ -4584,13 +4554,13 @@
         <v>495445</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>255</v>
+        <v>28</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>132</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,13 +4575,13 @@
         <v>249973</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>254</v>
@@ -4620,13 +4590,13 @@
         <v>264830</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>492</v>
@@ -4635,13 +4605,13 @@
         <v>514803</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,13 +4628,13 @@
         <v>21798</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -4673,13 +4643,13 @@
         <v>16888</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>262</v>
+        <v>35</v>
       </c>
       <c r="M22" s="7">
         <v>35</v>
@@ -4688,19 +4658,19 @@
         <v>38686</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>122</v>
+        <v>255</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>264</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>519</v>
@@ -4709,13 +4679,13 @@
         <v>553293</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="H23" s="7">
         <v>555</v>
@@ -4724,13 +4694,13 @@
         <v>609099</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>269</v>
+        <v>44</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="M23" s="7">
         <v>1074</v>
@@ -4739,13 +4709,13 @@
         <v>1162392</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>272</v>
+        <v>186</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>132</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,13 +4730,13 @@
         <v>575091</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>572</v>
@@ -4775,13 +4745,13 @@
         <v>625987</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1109</v>
@@ -4790,13 +4760,13 @@
         <v>1201078</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4813,13 +4783,13 @@
         <v>19164</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>11</v>
+        <v>263</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
@@ -4828,13 +4798,13 @@
         <v>27136</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>225</v>
+        <v>266</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>144</v>
+        <v>267</v>
       </c>
       <c r="M25" s="7">
         <v>43</v>
@@ -4843,19 +4813,19 @@
         <v>46300</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>86</v>
+        <v>238</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>565</v>
@@ -4864,13 +4834,13 @@
         <v>614741</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="H26" s="7">
         <v>622</v>
@@ -4879,13 +4849,13 @@
         <v>675158</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>151</v>
+        <v>272</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>234</v>
+        <v>273</v>
       </c>
       <c r="M26" s="7">
         <v>1187</v>
@@ -4894,13 +4864,13 @@
         <v>1289899</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>96</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4915,13 +4885,13 @@
         <v>633905</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>646</v>
@@ -4930,13 +4900,13 @@
         <v>702294</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1230</v>
@@ -4945,13 +4915,13 @@
         <v>1336199</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4968,13 +4938,13 @@
         <v>97394</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H28" s="7">
         <v>105</v>
@@ -4983,13 +4953,13 @@
         <v>112940</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="M28" s="7">
         <v>196</v>
@@ -4998,19 +4968,19 @@
         <v>210334</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>284</v>
+        <v>113</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>2645</v>
@@ -5019,28 +4989,28 @@
         <v>2817264</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="H29" s="7">
         <v>2810</v>
       </c>
       <c r="I29" s="7">
-        <v>3033382</v>
+        <v>3033381</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="M29" s="7">
         <v>5455</v>
@@ -5049,13 +5019,13 @@
         <v>5850646</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>292</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5070,28 +5040,28 @@
         <v>2914658</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>2915</v>
       </c>
       <c r="I30" s="7">
-        <v>3146322</v>
+        <v>3146321</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>5651</v>
@@ -5100,18 +5070,18 @@
         <v>6060980</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5135,7 +5105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BFF40B-3C28-4251-9312-D2713CC247B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170A5CE6-D65F-445D-B966-E3ECB1B928DB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5152,7 +5122,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5259,13 +5229,13 @@
         <v>12627</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>294</v>
+        <v>34</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -5274,13 +5244,13 @@
         <v>19270</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>85</v>
+        <v>291</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="M4" s="7">
         <v>31</v>
@@ -5289,19 +5259,19 @@
         <v>31897</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>209</v>
@@ -5310,13 +5280,13 @@
         <v>232591</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>302</v>
+        <v>42</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="H5" s="7">
         <v>220</v>
@@ -5325,13 +5295,13 @@
         <v>227064</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>94</v>
+        <v>300</v>
       </c>
       <c r="M5" s="7">
         <v>429</v>
@@ -5340,13 +5310,13 @@
         <v>459654</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5361,13 +5331,13 @@
         <v>245218</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>239</v>
@@ -5376,13 +5346,13 @@
         <v>246334</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>460</v>
@@ -5391,18 +5361,18 @@
         <v>491551</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5414,13 +5384,13 @@
         <v>7977</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -5429,13 +5399,13 @@
         <v>10274</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>315</v>
+        <v>126</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -5444,19 +5414,19 @@
         <v>18251</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>232</v>
+        <v>310</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>334</v>
@@ -5465,13 +5435,13 @@
         <v>355188</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="H8" s="7">
         <v>362</v>
@@ -5480,13 +5450,13 @@
         <v>383053</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>321</v>
+        <v>134</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="M8" s="7">
         <v>696</v>
@@ -5495,13 +5465,13 @@
         <v>738241</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>242</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5516,13 +5486,13 @@
         <v>363165</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>372</v>
@@ -5531,13 +5501,13 @@
         <v>393327</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>714</v>
@@ -5546,18 +5516,18 @@
         <v>756492</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5569,13 +5539,13 @@
         <v>9079</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -5584,13 +5554,13 @@
         <v>9979</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -5599,34 +5569,34 @@
         <v>19058</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>331</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>294</v>
       </c>
       <c r="D11" s="7">
-        <v>281427</v>
+        <v>281428</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="H11" s="7">
         <v>296</v>
@@ -5635,13 +5605,13 @@
         <v>297785</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="M11" s="7">
         <v>590</v>
@@ -5650,13 +5620,13 @@
         <v>579212</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>341</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5668,16 +5638,16 @@
         <v>303</v>
       </c>
       <c r="D12" s="7">
-        <v>290506</v>
+        <v>290507</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>305</v>
@@ -5686,13 +5656,13 @@
         <v>307764</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>608</v>
@@ -5701,18 +5671,18 @@
         <v>598270</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5724,13 +5694,13 @@
         <v>8231</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>344</v>
+        <v>213</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -5739,13 +5709,13 @@
         <v>9575</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -5754,19 +5724,19 @@
         <v>17805</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>125</v>
+        <v>341</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>307</v>
@@ -5775,13 +5745,13 @@
         <v>321816</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="H14" s="7">
         <v>313</v>
@@ -5790,13 +5760,13 @@
         <v>339286</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="M14" s="7">
         <v>620</v>
@@ -5805,13 +5775,13 @@
         <v>661103</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>135</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5826,13 +5796,13 @@
         <v>330047</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>323</v>
@@ -5841,13 +5811,13 @@
         <v>348861</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>637</v>
@@ -5856,18 +5826,18 @@
         <v>678908</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5879,13 +5849,13 @@
         <v>6016</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>357</v>
+        <v>255</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -5894,13 +5864,13 @@
         <v>5337</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -5909,19 +5879,19 @@
         <v>11353</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>112</v>
@@ -5930,13 +5900,13 @@
         <v>113206</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>366</v>
+        <v>262</v>
       </c>
       <c r="H17" s="7">
         <v>146</v>
@@ -5945,13 +5915,13 @@
         <v>140163</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="M17" s="7">
         <v>258</v>
@@ -5960,13 +5930,13 @@
         <v>253369</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>323</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5981,13 +5951,13 @@
         <v>119222</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>152</v>
@@ -5996,13 +5966,13 @@
         <v>145500</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>270</v>
@@ -6011,18 +5981,18 @@
         <v>264722</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6034,13 +6004,13 @@
         <v>3774</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>372</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -6049,13 +6019,13 @@
         <v>14450</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
@@ -6064,19 +6034,19 @@
         <v>18224</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>226</v>
@@ -6085,13 +6055,13 @@
         <v>229841</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>380</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H20" s="7">
         <v>225</v>
@@ -6100,13 +6070,13 @@
         <v>232687</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="M20" s="7">
         <v>451</v>
@@ -6115,13 +6085,13 @@
         <v>462529</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6136,13 +6106,13 @@
         <v>233615</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>240</v>
@@ -6151,13 +6121,13 @@
         <v>247137</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>470</v>
@@ -6166,13 +6136,13 @@
         <v>480753</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6189,13 +6159,13 @@
         <v>6479</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -6204,13 +6174,13 @@
         <v>11247</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>389</v>
+        <v>240</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>193</v>
+        <v>337</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="M22" s="7">
         <v>16</v>
@@ -6222,16 +6192,16 @@
         <v>14</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>380</v>
@@ -6240,13 +6210,13 @@
         <v>435828</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>173</v>
+        <v>119</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H23" s="7">
         <v>451</v>
@@ -6255,13 +6225,13 @@
         <v>475804</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>394</v>
+        <v>248</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>202</v>
+        <v>344</v>
       </c>
       <c r="M23" s="7">
         <v>831</v>
@@ -6270,13 +6240,13 @@
         <v>911632</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6291,13 +6261,13 @@
         <v>442307</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>461</v>
@@ -6306,13 +6276,13 @@
         <v>487051</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>847</v>
@@ -6321,13 +6291,13 @@
         <v>929358</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6344,13 +6314,13 @@
         <v>21582</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>399</v>
+        <v>304</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>184</v>
+        <v>389</v>
       </c>
       <c r="H25" s="7">
         <v>22</v>
@@ -6359,13 +6329,13 @@
         <v>22944</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>401</v>
+        <v>199</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="M25" s="7">
         <v>43</v>
@@ -6374,19 +6344,19 @@
         <v>44526</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>403</v>
+        <v>266</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>595</v>
@@ -6395,28 +6365,28 @@
         <v>618670</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>191</v>
+        <v>394</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>406</v>
+        <v>312</v>
       </c>
       <c r="H26" s="7">
         <v>613</v>
       </c>
       <c r="I26" s="7">
-        <v>668398</v>
+        <v>668397</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>409</v>
+        <v>206</v>
       </c>
       <c r="M26" s="7">
         <v>1208</v>
@@ -6425,13 +6395,13 @@
         <v>1287067</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>411</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6446,28 +6416,28 @@
         <v>640252</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>635</v>
       </c>
       <c r="I27" s="7">
-        <v>691342</v>
+        <v>691341</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1251</v>
@@ -6476,13 +6446,13 @@
         <v>1331593</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6499,13 +6469,13 @@
         <v>75765</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>215</v>
+        <v>398</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>412</v>
+        <v>144</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="H28" s="7">
         <v>101</v>
@@ -6514,13 +6484,13 @@
         <v>103076</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>33</v>
+        <v>401</v>
       </c>
       <c r="M28" s="7">
         <v>174</v>
@@ -6529,34 +6499,34 @@
         <v>178841</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>417</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>2457</v>
       </c>
       <c r="D29" s="7">
-        <v>2588569</v>
+        <v>2588568</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>224</v>
+        <v>404</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>419</v>
+        <v>154</v>
       </c>
       <c r="H29" s="7">
         <v>2626</v>
@@ -6565,28 +6535,28 @@
         <v>2764239</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>42</v>
+        <v>406</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="M29" s="7">
         <v>5083</v>
       </c>
       <c r="N29" s="7">
-        <v>5352808</v>
+        <v>5352807</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>422</v>
+        <v>152</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6598,16 +6568,16 @@
         <v>2530</v>
       </c>
       <c r="D30" s="7">
-        <v>2664334</v>
+        <v>2664333</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>2727</v>
@@ -6616,33 +6586,33 @@
         <v>2867315</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>5257</v>
       </c>
       <c r="N30" s="7">
-        <v>5531649</v>
+        <v>5531648</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -6666,7 +6636,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AADC51F-5FF9-4DDD-95AF-8F87BB0C8EEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A80AA90-87E0-4BE1-A0DE-36C06C187E87}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6683,7 +6653,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6790,13 +6760,13 @@
         <v>14259</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>426</v>
+        <v>235</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -6805,13 +6775,13 @@
         <v>17356</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -6820,19 +6790,19 @@
         <v>31615</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>430</v>
+        <v>325</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>262</v>
+        <v>415</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>306</v>
@@ -6841,13 +6811,13 @@
         <v>241011</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>434</v>
+        <v>242</v>
       </c>
       <c r="H5" s="7">
         <v>509</v>
@@ -6856,13 +6826,13 @@
         <v>252088</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M5" s="7">
         <v>815</v>
@@ -6871,13 +6841,13 @@
         <v>493100</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>437</v>
+        <v>332</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>269</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6892,13 +6862,13 @@
         <v>255270</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>531</v>
@@ -6907,13 +6877,13 @@
         <v>269444</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>848</v>
@@ -6922,18 +6892,18 @@
         <v>524715</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -6945,13 +6915,13 @@
         <v>18321</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="H7" s="7">
         <v>37</v>
@@ -6960,13 +6930,13 @@
         <v>29899</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>274</v>
+        <v>427</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="M7" s="7">
         <v>52</v>
@@ -6975,19 +6945,19 @@
         <v>48220</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>444</v>
+        <v>264</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>356</v>
@@ -6996,13 +6966,13 @@
         <v>489183</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="H8" s="7">
         <v>659</v>
@@ -7011,13 +6981,13 @@
         <v>510195</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>277</v>
+        <v>436</v>
       </c>
       <c r="M8" s="7">
         <v>1015</v>
@@ -7026,13 +6996,13 @@
         <v>999378</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>452</v>
+        <v>269</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7047,13 +7017,13 @@
         <v>507504</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>696</v>
@@ -7062,13 +7032,13 @@
         <v>540094</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>1067</v>
@@ -7077,18 +7047,18 @@
         <v>1047598</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -7100,13 +7070,13 @@
         <v>6389</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>212</v>
+        <v>441</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -7115,13 +7085,13 @@
         <v>6275</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -7130,19 +7100,19 @@
         <v>12665</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>460</v>
+        <v>263</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>461</v>
+        <v>382</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>339</v>
@@ -7151,13 +7121,13 @@
         <v>300944</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>220</v>
+        <v>447</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="H11" s="7">
         <v>508</v>
@@ -7166,13 +7136,13 @@
         <v>351971</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="M11" s="7">
         <v>847</v>
@@ -7181,13 +7151,13 @@
         <v>652914</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>468</v>
+        <v>270</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>470</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7202,13 +7172,13 @@
         <v>307333</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>517</v>
@@ -7217,13 +7187,13 @@
         <v>358246</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>862</v>
@@ -7232,18 +7202,18 @@
         <v>665579</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7255,13 +7225,13 @@
         <v>5554</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -7270,13 +7240,13 @@
         <v>7005</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>376</v>
+        <v>458</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -7285,19 +7255,19 @@
         <v>12559</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>285</v>
@@ -7306,13 +7276,13 @@
         <v>314096</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="H14" s="7">
         <v>584</v>
@@ -7321,13 +7291,13 @@
         <v>419147</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>385</v>
+        <v>466</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="M14" s="7">
         <v>869</v>
@@ -7336,13 +7306,13 @@
         <v>733243</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7357,13 +7327,13 @@
         <v>319650</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>594</v>
@@ -7372,13 +7342,13 @@
         <v>426152</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>882</v>
@@ -7387,18 +7357,18 @@
         <v>745802</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7410,10 +7380,10 @@
         <v>5310</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>414</v>
+        <v>471</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>89</v>
+        <v>472</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>473</v>
@@ -7425,13 +7395,13 @@
         <v>6793</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>487</v>
+        <v>253</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -7440,19 +7410,19 @@
         <v>12103</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>257</v>
@@ -7461,13 +7431,13 @@
         <v>179759</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>420</v>
+        <v>478</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>466</v>
@@ -7476,13 +7446,13 @@
         <v>218132</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>492</v>
+        <v>260</v>
       </c>
       <c r="M17" s="7">
         <v>723</v>
@@ -7491,13 +7461,13 @@
         <v>397891</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7512,13 +7482,13 @@
         <v>185069</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>477</v>
@@ -7527,13 +7497,13 @@
         <v>224925</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>740</v>
@@ -7542,18 +7512,18 @@
         <v>409994</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7565,13 +7535,13 @@
         <v>4908</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -7580,13 +7550,13 @@
         <v>3517</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>489</v>
+        <v>400</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -7595,19 +7565,19 @@
         <v>8425</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>500</v>
+        <v>253</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>501</v>
+        <v>475</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>339</v>
@@ -7616,13 +7586,13 @@
         <v>255869</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="H20" s="7">
         <v>434</v>
@@ -7631,13 +7601,13 @@
         <v>260691</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>493</v>
+        <v>407</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="M20" s="7">
         <v>773</v>
@@ -7646,13 +7616,13 @@
         <v>516560</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>507</v>
+        <v>260</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>508</v>
+        <v>482</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7667,13 +7637,13 @@
         <v>260777</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>440</v>
@@ -7682,13 +7652,13 @@
         <v>264208</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>784</v>
@@ -7697,13 +7667,13 @@
         <v>524985</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7720,13 +7690,13 @@
         <v>21185</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>52</v>
+        <v>498</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="H22" s="7">
         <v>46</v>
@@ -7735,13 +7705,13 @@
         <v>39174</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="M22" s="7">
         <v>68</v>
@@ -7750,19 +7720,19 @@
         <v>60359</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>441</v>
+        <v>505</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>559</v>
@@ -7771,13 +7741,13 @@
         <v>586064</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>61</v>
+        <v>508</v>
       </c>
       <c r="H23" s="7">
         <v>877</v>
@@ -7786,13 +7756,13 @@
         <v>742535</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="M23" s="7">
         <v>1436</v>
@@ -7801,13 +7771,13 @@
         <v>1328599</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>448</v>
+        <v>513</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7822,13 +7792,13 @@
         <v>607249</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>923</v>
@@ -7837,13 +7807,13 @@
         <v>781709</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1504</v>
@@ -7852,13 +7822,13 @@
         <v>1388958</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7875,13 +7845,13 @@
         <v>30663</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>357</v>
+        <v>516</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>524</v>
+        <v>426</v>
       </c>
       <c r="H25" s="7">
         <v>40</v>
@@ -7890,13 +7860,13 @@
         <v>41405</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>525</v>
+        <v>111</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="M25" s="7">
         <v>66</v>
@@ -7905,19 +7875,19 @@
         <v>72068</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>390</v>
+        <v>519</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>501</v>
+        <v>520</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>718</v>
@@ -7926,13 +7896,13 @@
         <v>803622</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>530</v>
+        <v>434</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>366</v>
+        <v>523</v>
       </c>
       <c r="H26" s="7">
         <v>999</v>
@@ -7941,13 +7911,13 @@
         <v>810664</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>531</v>
+        <v>117</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="M26" s="7">
         <v>1717</v>
@@ -7956,13 +7926,13 @@
         <v>1614286</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>395</v>
+        <v>526</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>508</v>
+        <v>528</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7977,13 +7947,13 @@
         <v>834285</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>1039</v>
@@ -7992,13 +7962,13 @@
         <v>852069</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1783</v>
@@ -8007,13 +7977,13 @@
         <v>1686354</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8030,13 +8000,13 @@
         <v>106588</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>536</v>
+        <v>276</v>
       </c>
       <c r="H28" s="7">
         <v>181</v>
@@ -8045,13 +8015,13 @@
         <v>151425</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>209</v>
+        <v>531</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="M28" s="7">
         <v>275</v>
@@ -8060,19 +8030,19 @@
         <v>258013</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>539</v>
+        <v>141</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>330</v>
+        <v>254</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>540</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>3159</v>
@@ -8081,13 +8051,13 @@
         <v>3170550</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>541</v>
+        <v>281</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="H29" s="7">
         <v>5036</v>
@@ -8096,13 +8066,13 @@
         <v>3565423</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>217</v>
+        <v>536</v>
       </c>
       <c r="M29" s="7">
         <v>8195</v>
@@ -8111,13 +8081,13 @@
         <v>6735973</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>545</v>
+        <v>151</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>546</v>
+        <v>313</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>339</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8132,13 +8102,13 @@
         <v>3277138</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>5217</v>
@@ -8147,13 +8117,13 @@
         <v>3716848</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>8470</v>
@@ -8162,18 +8132,18 @@
         <v>6993986</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C07-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C07-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{085DCE4C-A867-478D-9447-FE845B46D6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDC19DB7-CBA8-4CAC-9A6D-D52FF22A3FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AE0D8F51-BDF4-49C3-AEC0-215CF00092D0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9450F247-57A4-4804-AB42-36A39CEF1A9A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="533">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -77,1579 +77,1567 @@
     <t>1,95%</t>
   </si>
   <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
     <t>0,5%</t>
   </si>
   <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2012 (Tasa respuesta: 86,84%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
   </si>
   <si>
     <t>3,76%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
   </si>
   <si>
     <t>96,24%</t>
   </si>
   <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2016 (Tasa respuesta: 80,03%)</t>
   </si>
   <si>
     <t>5,15%</t>
   </si>
   <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
   </si>
   <si>
     <t>94,85%</t>
   </si>
   <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
   </si>
   <si>
     <t>4,86%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
   </si>
   <si>
     <t>95,14%</t>
   </si>
   <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>5,45%</t>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
   </si>
   <si>
     <t>3,69%</t>
   </si>
   <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
   </si>
   <si>
     <t>96,31%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2012 (Tasa respuesta: 86,84%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
   </si>
 </sst>
 </file>
@@ -2061,7 +2049,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2BD109-DE76-4BCD-BAA0-7097F5C8632C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE7D16B-B0EC-4530-84B9-38F29EDAC6D8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2203,10 +2191,10 @@
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -2215,19 +2203,19 @@
         <v>7575</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>187</v>
@@ -2236,13 +2224,13 @@
         <v>187765</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>186</v>
@@ -2251,13 +2239,13 @@
         <v>197375</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
         <v>373</v>
@@ -2266,13 +2254,13 @@
         <v>385141</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2287,13 +2275,13 @@
         <v>191493</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>191</v>
@@ -2302,13 +2290,13 @@
         <v>201222</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>382</v>
@@ -2317,18 +2305,18 @@
         <v>392716</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2340,13 +2328,13 @@
         <v>12387</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -2355,13 +2343,13 @@
         <v>18702</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>29</v>
@@ -2370,19 +2358,19 @@
         <v>31089</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>373</v>
@@ -2391,13 +2379,13 @@
         <v>397369</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>420</v>
@@ -2406,13 +2394,13 @@
         <v>422499</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>793</v>
@@ -2421,13 +2409,13 @@
         <v>819868</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2442,13 +2430,13 @@
         <v>409756</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>438</v>
@@ -2457,13 +2445,13 @@
         <v>441201</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>822</v>
@@ -2472,18 +2460,18 @@
         <v>850957</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2495,13 +2483,13 @@
         <v>3998</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -2510,13 +2498,13 @@
         <v>5774</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -2525,19 +2513,19 @@
         <v>9773</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>227</v>
@@ -2546,13 +2534,13 @@
         <v>232539</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>282</v>
@@ -2561,13 +2549,13 @@
         <v>283032</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>509</v>
@@ -2576,13 +2564,13 @@
         <v>515570</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2597,13 +2585,13 @@
         <v>236537</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>288</v>
@@ -2612,13 +2600,13 @@
         <v>288806</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>519</v>
@@ -2627,18 +2615,18 @@
         <v>525343</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2650,13 +2638,13 @@
         <v>8198</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -2665,13 +2653,13 @@
         <v>18313</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>27</v>
@@ -2680,19 +2668,19 @@
         <v>26510</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>260</v>
@@ -2701,13 +2689,13 @@
         <v>259333</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>289</v>
@@ -2716,13 +2704,13 @@
         <v>281221</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>549</v>
@@ -2731,13 +2719,13 @@
         <v>540555</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2752,13 +2740,13 @@
         <v>267531</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>308</v>
@@ -2767,13 +2755,13 @@
         <v>299534</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>576</v>
@@ -2782,18 +2770,18 @@
         <v>567065</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2805,13 +2793,13 @@
         <v>8242</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -2820,13 +2808,13 @@
         <v>6623</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -2835,19 +2823,19 @@
         <v>14866</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>162</v>
@@ -2856,13 +2844,13 @@
         <v>162036</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>160</v>
@@ -2871,13 +2859,13 @@
         <v>167283</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>322</v>
@@ -2886,13 +2874,13 @@
         <v>329318</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2907,13 +2895,13 @@
         <v>170278</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>166</v>
@@ -2922,13 +2910,13 @@
         <v>173906</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>337</v>
@@ -2937,18 +2925,18 @@
         <v>344184</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2960,13 +2948,13 @@
         <v>1894</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -2975,13 +2963,13 @@
         <v>3943</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -2990,10 +2978,10 @@
         <v>5837</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>113</v>
@@ -3002,7 +2990,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>184</v>
@@ -3026,13 +3014,13 @@
         <v>200545</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>379</v>
@@ -3041,13 +3029,13 @@
         <v>387921</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>23</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3062,13 +3050,13 @@
         <v>189270</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>199</v>
@@ -3077,13 +3065,13 @@
         <v>204488</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>385</v>
@@ -3092,18 +3080,18 @@
         <v>393758</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3115,13 +3103,13 @@
         <v>17253</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
@@ -3130,13 +3118,13 @@
         <v>15530</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>33</v>
@@ -3145,19 +3133,19 @@
         <v>32783</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>436</v>
@@ -3166,13 +3154,13 @@
         <v>447072</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
         <v>509</v>
@@ -3181,13 +3169,13 @@
         <v>523838</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
         <v>945</v>
@@ -3196,13 +3184,13 @@
         <v>970909</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3217,13 +3205,13 @@
         <v>464325</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>524</v>
@@ -3232,13 +3220,13 @@
         <v>539368</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M24" s="7">
         <v>978</v>
@@ -3247,18 +3235,18 @@
         <v>1003692</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3270,13 +3258,13 @@
         <v>28620</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H25" s="7">
         <v>22</v>
@@ -3285,13 +3273,13 @@
         <v>22359</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M25" s="7">
         <v>50</v>
@@ -3300,19 +3288,19 @@
         <v>50979</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="7">
         <v>494</v>
@@ -3321,13 +3309,13 @@
         <v>496932</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H26" s="7">
         <v>543</v>
@@ -3336,13 +3324,13 @@
         <v>570053</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M26" s="7">
         <v>1037</v>
@@ -3351,7 +3339,7 @@
         <v>1066984</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>156</v>
@@ -3372,13 +3360,13 @@
         <v>525552</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H27" s="7">
         <v>565</v>
@@ -3387,13 +3375,13 @@
         <v>592412</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M27" s="7">
         <v>1087</v>
@@ -3402,13 +3390,13 @@
         <v>1117963</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,7 +3455,7 @@
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="7">
         <v>2323</v>
@@ -3527,13 +3515,13 @@
         <v>2454742</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H30" s="7">
         <v>2679</v>
@@ -3542,13 +3530,13 @@
         <v>2740937</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M30" s="7">
         <v>5086</v>
@@ -3557,13 +3545,13 @@
         <v>5195679</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,7 +3580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EAEE4B3-9C3E-43A8-A53E-33D0BC027926}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB130AE8-900B-4DC0-8125-06E7299BAA68}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3752,7 +3740,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -3841,7 +3829,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3874,7 +3862,7 @@
         <v>182</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
         <v>28</v>
@@ -3886,16 +3874,16 @@
         <v>161</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>364</v>
@@ -3904,10 +3892,10 @@
         <v>388317</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>169</v>
@@ -3919,13 +3907,13 @@
         <v>426582</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>756</v>
@@ -3937,10 +3925,10 @@
         <v>170</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,13 +3943,13 @@
         <v>406330</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>402</v>
@@ -3970,13 +3958,13 @@
         <v>437823</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>784</v>
@@ -3985,18 +3973,18 @@
         <v>844153</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4011,10 +3999,10 @@
         <v>181</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -4023,13 +4011,13 @@
         <v>12906</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -4038,19 +4026,19 @@
         <v>20461</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>281</v>
@@ -4059,13 +4047,13 @@
         <v>286109</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H11" s="7">
         <v>292</v>
@@ -4074,13 +4062,13 @@
         <v>315846</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M11" s="7">
         <v>573</v>
@@ -4089,10 +4077,10 @@
         <v>601955</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>206</v>
@@ -4110,13 +4098,13 @@
         <v>293664</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>305</v>
@@ -4125,13 +4113,13 @@
         <v>328752</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>594</v>
@@ -4140,18 +4128,18 @@
         <v>622416</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4166,10 +4154,10 @@
         <v>207</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -4178,13 +4166,13 @@
         <v>26564</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -4193,19 +4181,19 @@
         <v>45373</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>162</v>
+        <v>211</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>514</v>
@@ -4214,13 +4202,13 @@
         <v>544829</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>215</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>216</v>
+        <v>25</v>
       </c>
       <c r="H14" s="7">
         <v>524</v>
@@ -4229,13 +4217,13 @@
         <v>565490</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>219</v>
+        <v>39</v>
       </c>
       <c r="M14" s="7">
         <v>1038</v>
@@ -4244,13 +4232,13 @@
         <v>1110318</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,13 +4253,13 @@
         <v>563637</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>548</v>
@@ -4280,13 +4268,13 @@
         <v>592054</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>1078</v>
@@ -4295,18 +4283,18 @@
         <v>1155691</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4318,13 +4306,13 @@
         <v>5060</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -4333,13 +4321,13 @@
         <v>5843</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>165</v>
+        <v>222</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -4348,10 +4336,10 @@
         <v>10902</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>227</v>
@@ -4360,7 +4348,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>171</v>
@@ -4384,13 +4372,13 @@
         <v>188739</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>175</v>
+        <v>231</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M17" s="7">
         <v>353</v>
@@ -4399,13 +4387,13 @@
         <v>375738</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>103</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4420,13 +4408,13 @@
         <v>192058</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>188</v>
@@ -4435,13 +4423,13 @@
         <v>194582</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>364</v>
@@ -4450,18 +4438,18 @@
         <v>386640</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4473,13 +4461,13 @@
         <v>6996</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>235</v>
+        <v>162</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>18</v>
+        <v>191</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -4488,13 +4476,13 @@
         <v>12361</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M19" s="7">
         <v>18</v>
@@ -4503,19 +4491,19 @@
         <v>19358</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>19</v>
+        <v>241</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>231</v>
@@ -4524,13 +4512,13 @@
         <v>242977</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>242</v>
+        <v>172</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>29</v>
+        <v>200</v>
       </c>
       <c r="H20" s="7">
         <v>243</v>
@@ -4539,13 +4527,13 @@
         <v>252469</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M20" s="7">
         <v>474</v>
@@ -4554,13 +4542,13 @@
         <v>495445</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>28</v>
+        <v>248</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4575,13 +4563,13 @@
         <v>249973</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>254</v>
@@ -4590,13 +4578,13 @@
         <v>264830</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>492</v>
@@ -4605,18 +4593,18 @@
         <v>514803</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4628,13 +4616,13 @@
         <v>21798</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -4643,13 +4631,13 @@
         <v>16888</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>252</v>
+        <v>159</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>35</v>
+        <v>255</v>
       </c>
       <c r="M22" s="7">
         <v>35</v>
@@ -4658,19 +4646,19 @@
         <v>38686</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>179</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>519</v>
@@ -4679,13 +4667,13 @@
         <v>553293</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H23" s="7">
         <v>555</v>
@@ -4694,13 +4682,13 @@
         <v>609099</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>259</v>
+        <v>169</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>44</v>
+        <v>262</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="M23" s="7">
         <v>1074</v>
@@ -4709,13 +4697,13 @@
         <v>1162392</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>186</v>
+        <v>265</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4730,13 +4718,13 @@
         <v>575091</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>572</v>
@@ -4745,13 +4733,13 @@
         <v>625987</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M24" s="7">
         <v>1109</v>
@@ -4760,18 +4748,18 @@
         <v>1201078</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4783,13 +4771,13 @@
         <v>19164</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>264</v>
+        <v>128</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
@@ -4798,13 +4786,13 @@
         <v>27136</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M25" s="7">
         <v>43</v>
@@ -4816,16 +4804,16 @@
         <v>161</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="7">
         <v>565</v>
@@ -4834,13 +4822,13 @@
         <v>614741</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>269</v>
+        <v>136</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H26" s="7">
         <v>622</v>
@@ -4849,13 +4837,13 @@
         <v>675158</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M26" s="7">
         <v>1187</v>
@@ -4867,10 +4855,10 @@
         <v>170</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,13 +4873,13 @@
         <v>633905</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H27" s="7">
         <v>646</v>
@@ -4900,13 +4888,13 @@
         <v>702294</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M27" s="7">
         <v>1230</v>
@@ -4915,13 +4903,13 @@
         <v>1336199</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4941,10 +4929,10 @@
         <v>207</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H28" s="7">
         <v>105</v>
@@ -4953,13 +4941,13 @@
         <v>112940</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="M28" s="7">
         <v>196</v>
@@ -4971,16 +4959,16 @@
         <v>161</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>113</v>
+        <v>284</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="7">
         <v>2645</v>
@@ -4989,13 +4977,13 @@
         <v>2817264</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="H29" s="7">
         <v>2810</v>
@@ -5004,13 +4992,13 @@
         <v>3033381</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="M29" s="7">
         <v>5455</v>
@@ -5022,10 +5010,10 @@
         <v>170</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>119</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5040,13 +5028,13 @@
         <v>2914658</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H30" s="7">
         <v>2915</v>
@@ -5055,13 +5043,13 @@
         <v>3146321</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M30" s="7">
         <v>5651</v>
@@ -5070,13 +5058,13 @@
         <v>6060980</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5105,7 +5093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170A5CE6-D65F-445D-B966-E3ECB1B928DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B4E657-B893-4515-993C-F19A7DCB1716}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5122,7 +5110,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5229,13 +5217,13 @@
         <v>12627</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>34</v>
+        <v>294</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -5244,13 +5232,13 @@
         <v>19270</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="M4" s="7">
         <v>31</v>
@@ -5259,19 +5247,19 @@
         <v>31897</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>209</v>
@@ -5280,13 +5268,13 @@
         <v>232591</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>42</v>
+        <v>302</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="H5" s="7">
         <v>220</v>
@@ -5295,13 +5283,13 @@
         <v>227064</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="M5" s="7">
         <v>429</v>
@@ -5310,13 +5298,13 @@
         <v>459654</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5331,13 +5319,13 @@
         <v>245218</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>239</v>
@@ -5346,13 +5334,13 @@
         <v>246334</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>460</v>
@@ -5361,18 +5349,18 @@
         <v>491551</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5384,13 +5372,13 @@
         <v>7977</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>306</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -5399,13 +5387,13 @@
         <v>10274</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>126</v>
+        <v>272</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -5414,19 +5402,19 @@
         <v>18251</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>309</v>
+        <v>183</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>334</v>
@@ -5435,13 +5423,13 @@
         <v>355188</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>313</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="H8" s="7">
         <v>362</v>
@@ -5450,13 +5438,13 @@
         <v>383053</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>134</v>
+        <v>277</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="M8" s="7">
         <v>696</v>
@@ -5465,13 +5453,13 @@
         <v>738241</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>317</v>
+        <v>190</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5486,13 +5474,13 @@
         <v>363165</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>372</v>
@@ -5501,13 +5489,13 @@
         <v>393327</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>714</v>
@@ -5516,18 +5504,18 @@
         <v>756492</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5539,13 +5527,13 @@
         <v>9079</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -5554,13 +5542,13 @@
         <v>9979</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -5569,19 +5557,19 @@
         <v>19058</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>329</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>294</v>
@@ -5590,13 +5578,13 @@
         <v>281428</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="H11" s="7">
         <v>296</v>
@@ -5605,13 +5593,13 @@
         <v>297785</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M11" s="7">
         <v>590</v>
@@ -5620,13 +5608,13 @@
         <v>579212</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5641,13 +5629,13 @@
         <v>290507</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>305</v>
@@ -5656,13 +5644,13 @@
         <v>307764</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>608</v>
@@ -5671,18 +5659,18 @@
         <v>598270</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5694,13 +5682,13 @@
         <v>8231</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -5709,13 +5697,13 @@
         <v>9575</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>159</v>
+        <v>342</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>338</v>
+        <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>339</v>
+        <v>131</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -5724,19 +5712,19 @@
         <v>17805</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>307</v>
@@ -5745,13 +5733,13 @@
         <v>321816</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H14" s="7">
         <v>313</v>
@@ -5760,13 +5748,13 @@
         <v>339286</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>169</v>
+        <v>347</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>345</v>
+        <v>139</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>346</v>
+        <v>41</v>
       </c>
       <c r="M14" s="7">
         <v>620</v>
@@ -5775,13 +5763,13 @@
         <v>661103</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5796,13 +5784,13 @@
         <v>330047</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>323</v>
@@ -5811,13 +5799,13 @@
         <v>348861</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>637</v>
@@ -5826,18 +5814,18 @@
         <v>678908</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5852,10 +5840,10 @@
         <v>350</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>255</v>
+        <v>351</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -5864,7 +5852,7 @@
         <v>5337</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>352</v>
+        <v>72</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>353</v>
@@ -5891,7 +5879,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>112</v>
@@ -5906,7 +5894,7 @@
         <v>359</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>262</v>
+        <v>360</v>
       </c>
       <c r="H17" s="7">
         <v>146</v>
@@ -5915,7 +5903,7 @@
         <v>140163</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>360</v>
+        <v>82</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>361</v>
@@ -5951,13 +5939,13 @@
         <v>119222</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>152</v>
@@ -5966,13 +5954,13 @@
         <v>145500</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>270</v>
@@ -5981,18 +5969,18 @@
         <v>264722</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6004,13 +5992,13 @@
         <v>3774</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>366</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -6019,7 +6007,7 @@
         <v>14450</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>368</v>
+        <v>327</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>369</v>
@@ -6034,19 +6022,19 @@
         <v>18224</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>226</v>
@@ -6055,7 +6043,7 @@
         <v>229841</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>135</v>
+        <v>372</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>373</v>
@@ -6070,13 +6058,13 @@
         <v>232687</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="M20" s="7">
         <v>451</v>
@@ -6085,13 +6073,13 @@
         <v>462529</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>379</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6106,13 +6094,13 @@
         <v>233615</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>240</v>
@@ -6121,13 +6109,13 @@
         <v>247137</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>470</v>
@@ -6136,18 +6124,18 @@
         <v>480753</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6159,13 +6147,13 @@
         <v>6479</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>113</v>
+        <v>379</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -6174,13 +6162,13 @@
         <v>11247</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>240</v>
+        <v>380</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>337</v>
+        <v>381</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M22" s="7">
         <v>16</v>
@@ -6192,16 +6180,16 @@
         <v>14</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>383</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>380</v>
@@ -6213,10 +6201,10 @@
         <v>384</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>119</v>
+        <v>385</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="H23" s="7">
         <v>451</v>
@@ -6225,13 +6213,13 @@
         <v>475804</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>248</v>
+        <v>386</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>344</v>
+        <v>388</v>
       </c>
       <c r="M23" s="7">
         <v>831</v>
@@ -6240,13 +6228,13 @@
         <v>911632</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>386</v>
+        <v>292</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6261,13 +6249,13 @@
         <v>442307</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>461</v>
@@ -6276,13 +6264,13 @@
         <v>487051</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M24" s="7">
         <v>847</v>
@@ -6291,18 +6279,18 @@
         <v>929358</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6314,13 +6302,13 @@
         <v>21582</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>304</v>
+        <v>194</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H25" s="7">
         <v>22</v>
@@ -6329,13 +6317,13 @@
         <v>22944</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>199</v>
+        <v>393</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="M25" s="7">
         <v>43</v>
@@ -6347,16 +6335,16 @@
         <v>207</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>266</v>
+        <v>94</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="7">
         <v>595</v>
@@ -6365,13 +6353,13 @@
         <v>618670</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>312</v>
+        <v>203</v>
       </c>
       <c r="H26" s="7">
         <v>613</v>
@@ -6380,13 +6368,13 @@
         <v>668397</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>206</v>
+        <v>400</v>
       </c>
       <c r="M26" s="7">
         <v>1208</v>
@@ -6395,13 +6383,13 @@
         <v>1287067</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>273</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6416,13 +6404,13 @@
         <v>640252</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H27" s="7">
         <v>635</v>
@@ -6431,13 +6419,13 @@
         <v>691341</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M27" s="7">
         <v>1251</v>
@@ -6446,13 +6434,13 @@
         <v>1331593</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6469,13 +6457,13 @@
         <v>75765</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>144</v>
+        <v>403</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="H28" s="7">
         <v>101</v>
@@ -6484,13 +6472,13 @@
         <v>103076</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="M28" s="7">
         <v>174</v>
@@ -6499,34 +6487,34 @@
         <v>178841</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>403</v>
+        <v>162</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>143</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="7">
         <v>2457</v>
       </c>
       <c r="D29" s="7">
-        <v>2588568</v>
+        <v>2588569</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>154</v>
+        <v>409</v>
       </c>
       <c r="H29" s="7">
         <v>2626</v>
@@ -6535,13 +6523,13 @@
         <v>2764239</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>407</v>
+        <v>290</v>
       </c>
       <c r="M29" s="7">
         <v>5083</v>
@@ -6550,13 +6538,13 @@
         <v>5352807</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>152</v>
+        <v>248</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>409</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6568,16 +6556,16 @@
         <v>2530</v>
       </c>
       <c r="D30" s="7">
-        <v>2664333</v>
+        <v>2664334</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H30" s="7">
         <v>2727</v>
@@ -6586,13 +6574,13 @@
         <v>2867315</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M30" s="7">
         <v>5257</v>
@@ -6601,13 +6589,13 @@
         <v>5531648</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6636,7 +6624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A80AA90-87E0-4BE1-A0DE-36C06C187E87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60BF6074-E0E1-4A53-AF5D-41EF2CE519BF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6653,7 +6641,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6760,13 +6748,13 @@
         <v>14259</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>235</v>
+        <v>162</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -6775,13 +6763,13 @@
         <v>17356</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -6790,19 +6778,19 @@
         <v>31615</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>325</v>
+        <v>417</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>306</v>
@@ -6811,13 +6799,13 @@
         <v>241011</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>242</v>
+        <v>172</v>
       </c>
       <c r="H5" s="7">
         <v>509</v>
@@ -6826,13 +6814,13 @@
         <v>252088</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M5" s="7">
         <v>815</v>
@@ -6841,13 +6829,13 @@
         <v>493100</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>332</v>
+        <v>424</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6862,13 +6850,13 @@
         <v>255270</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>531</v>
@@ -6877,13 +6865,13 @@
         <v>269444</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>848</v>
@@ -6892,18 +6880,18 @@
         <v>524715</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -6915,13 +6903,13 @@
         <v>18321</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="H7" s="7">
         <v>37</v>
@@ -6930,13 +6918,13 @@
         <v>29899</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="M7" s="7">
         <v>52</v>
@@ -6945,19 +6933,19 @@
         <v>48220</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>264</v>
+        <v>433</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>356</v>
@@ -6966,13 +6954,13 @@
         <v>489183</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="H8" s="7">
         <v>659</v>
@@ -6981,13 +6969,13 @@
         <v>510195</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="M8" s="7">
         <v>1015</v>
@@ -6996,13 +6984,13 @@
         <v>999378</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>269</v>
+        <v>442</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7017,13 +7005,13 @@
         <v>507504</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>696</v>
@@ -7032,13 +7020,13 @@
         <v>540094</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>1067</v>
@@ -7047,18 +7035,18 @@
         <v>1047598</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -7070,13 +7058,13 @@
         <v>6389</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -7085,13 +7073,13 @@
         <v>6275</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -7100,19 +7088,19 @@
         <v>12665</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>263</v>
+        <v>451</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>382</v>
+        <v>452</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>339</v>
@@ -7121,13 +7109,13 @@
         <v>300944</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="H11" s="7">
         <v>508</v>
@@ -7136,13 +7124,13 @@
         <v>351971</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="M11" s="7">
         <v>847</v>
@@ -7151,13 +7139,13 @@
         <v>652914</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>270</v>
+        <v>460</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>387</v>
+        <v>462</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7172,13 +7160,13 @@
         <v>307333</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>517</v>
@@ -7187,13 +7175,13 @@
         <v>358246</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>862</v>
@@ -7202,18 +7190,18 @@
         <v>665579</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7225,13 +7213,13 @@
         <v>5554</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -7240,13 +7228,13 @@
         <v>7005</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -7255,19 +7243,19 @@
         <v>12559</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>285</v>
@@ -7276,13 +7264,13 @@
         <v>314096</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="H14" s="7">
         <v>584</v>
@@ -7291,13 +7279,13 @@
         <v>419147</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="M14" s="7">
         <v>869</v>
@@ -7306,13 +7294,13 @@
         <v>733243</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7327,13 +7315,13 @@
         <v>319650</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>594</v>
@@ -7342,13 +7330,13 @@
         <v>426152</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>882</v>
@@ -7357,18 +7345,18 @@
         <v>745802</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7380,13 +7368,13 @@
         <v>5310</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -7395,13 +7383,13 @@
         <v>6793</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>253</v>
+        <v>484</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>474</v>
+        <v>76</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -7410,19 +7398,19 @@
         <v>12103</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>475</v>
+        <v>282</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>257</v>
@@ -7431,13 +7419,13 @@
         <v>179759</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="H17" s="7">
         <v>466</v>
@@ -7446,13 +7434,13 @@
         <v>218132</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>481</v>
+        <v>84</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>260</v>
+        <v>490</v>
       </c>
       <c r="M17" s="7">
         <v>723</v>
@@ -7461,13 +7449,13 @@
         <v>397891</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>482</v>
+        <v>290</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7482,13 +7470,13 @@
         <v>185069</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>477</v>
@@ -7497,13 +7485,13 @@
         <v>224925</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>740</v>
@@ -7512,18 +7500,18 @@
         <v>409994</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7535,13 +7523,13 @@
         <v>4908</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>487</v>
+        <v>32</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -7550,13 +7538,13 @@
         <v>3517</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>488</v>
+        <v>226</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>489</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>400</v>
+        <v>495</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -7565,19 +7553,19 @@
         <v>8425</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>253</v>
+        <v>484</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>475</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>339</v>
@@ -7586,13 +7574,13 @@
         <v>255869</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>492</v>
+        <v>40</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="H20" s="7">
         <v>434</v>
@@ -7601,13 +7589,13 @@
         <v>260691</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>494</v>
+        <v>236</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>407</v>
+        <v>499</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>495</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>773</v>
@@ -7616,13 +7604,13 @@
         <v>516560</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>260</v>
+        <v>490</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>482</v>
+        <v>290</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7637,13 +7625,13 @@
         <v>260777</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>440</v>
@@ -7652,13 +7640,13 @@
         <v>264208</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>784</v>
@@ -7667,18 +7655,18 @@
         <v>524985</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7690,13 +7678,13 @@
         <v>21185</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>497</v>
+        <v>18</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="H22" s="7">
         <v>46</v>
@@ -7705,13 +7693,13 @@
         <v>39174</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>501</v>
+        <v>379</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="M22" s="7">
         <v>68</v>
@@ -7720,19 +7708,19 @@
         <v>60359</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>504</v>
+        <v>75</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>505</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>559</v>
@@ -7741,13 +7729,13 @@
         <v>586064</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>508</v>
       </c>
       <c r="H23" s="7">
         <v>877</v>
@@ -7756,13 +7744,13 @@
         <v>742535</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>510</v>
-      </c>
       <c r="L23" s="7" t="s">
-        <v>511</v>
+        <v>385</v>
       </c>
       <c r="M23" s="7">
         <v>1436</v>
@@ -7771,13 +7759,13 @@
         <v>1328599</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>513</v>
+        <v>275</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>514</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7792,13 +7780,13 @@
         <v>607249</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>923</v>
@@ -7807,13 +7795,13 @@
         <v>781709</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M24" s="7">
         <v>1504</v>
@@ -7822,18 +7810,18 @@
         <v>1388958</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7845,13 +7833,13 @@
         <v>30663</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>516</v>
+        <v>239</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="H25" s="7">
         <v>40</v>
@@ -7860,13 +7848,13 @@
         <v>41405</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>111</v>
+        <v>512</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>517</v>
+        <v>148</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="M25" s="7">
         <v>66</v>
@@ -7875,19 +7863,19 @@
         <v>72068</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="7">
         <v>718</v>
@@ -7896,13 +7884,13 @@
         <v>803622</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>523</v>
+        <v>247</v>
       </c>
       <c r="H26" s="7">
         <v>999</v>
@@ -7911,13 +7899,13 @@
         <v>810664</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>117</v>
+        <v>518</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>525</v>
+        <v>157</v>
       </c>
       <c r="M26" s="7">
         <v>1717</v>
@@ -7926,13 +7914,13 @@
         <v>1614286</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7947,13 +7935,13 @@
         <v>834285</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H27" s="7">
         <v>1039</v>
@@ -7962,13 +7950,13 @@
         <v>852069</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M27" s="7">
         <v>1783</v>
@@ -7977,13 +7965,13 @@
         <v>1686354</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8000,13 +7988,13 @@
         <v>106588</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>276</v>
+        <v>524</v>
       </c>
       <c r="H28" s="7">
         <v>181</v>
@@ -8015,13 +8003,13 @@
         <v>151425</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>530</v>
+        <v>344</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="M28" s="7">
         <v>275</v>
@@ -8030,19 +8018,19 @@
         <v>258013</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>141</v>
+        <v>527</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>306</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="7">
         <v>3159</v>
@@ -8051,13 +8039,13 @@
         <v>3170550</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>281</v>
+        <v>528</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="H29" s="7">
         <v>5036</v>
@@ -8066,13 +8054,13 @@
         <v>3565423</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>534</v>
+        <v>349</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="M29" s="7">
         <v>8195</v>
@@ -8081,13 +8069,13 @@
         <v>6735973</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>151</v>
+        <v>532</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>313</v>
+        <v>171</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8102,13 +8090,13 @@
         <v>3277138</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H30" s="7">
         <v>5217</v>
@@ -8117,13 +8105,13 @@
         <v>3716848</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M30" s="7">
         <v>8470</v>
@@ -8132,13 +8120,13 @@
         <v>6993986</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P19C07-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C07-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDC19DB7-CBA8-4CAC-9A6D-D52FF22A3FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45606EBB-AFB1-4225-A2F2-A5BC7FD5B02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9450F247-57A4-4804-AB42-36A39CEF1A9A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2F1BF847-9B91-47C3-AD4C-A4A6810B9D7C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="547">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>1,95%</t>
@@ -80,1564 +80,1606 @@
     <t>0,49%</t>
   </si>
   <si>
-    <t>4,47%</t>
+    <t>4,45%</t>
   </si>
   <si>
     <t>1,91%</t>
   </si>
   <si>
-    <t>4,64%</t>
+    <t>4,58%</t>
   </si>
   <si>
     <t>1,93%</t>
   </si>
   <si>
-    <t>0,75%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2012 (Tasa respuesta: 86,84%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
   </si>
   <si>
     <t>3,49%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
   </si>
   <si>
     <t>96,51%</t>
   </si>
   <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
   </si>
   <si>
     <t>96,96%</t>
   </si>
   <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2012 (Tasa respuesta: 86,84%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
   </si>
   <si>
     <t>6,6%</t>
   </si>
   <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
   </si>
   <si>
     <t>93,4%</t>
   </si>
   <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2016 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
   </si>
   <si>
     <t>4,07%</t>
   </si>
   <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
   </si>
   <si>
     <t>95,93%</t>
   </si>
   <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
+    <t>95,24%</t>
   </si>
   <si>
     <t>96,31%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
   </si>
 </sst>
 </file>
@@ -2049,7 +2091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE7D16B-B0EC-4530-84B9-38F29EDAC6D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E616BD-ECCB-447C-8D49-D6B8FA4B26ED}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2671,10 +2713,10 @@
         <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2689,13 +2731,13 @@
         <v>259333</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>289</v>
@@ -2704,13 +2746,13 @@
         <v>281221</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>549</v>
@@ -2719,13 +2761,13 @@
         <v>540555</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2781,7 +2823,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2793,13 +2835,13 @@
         <v>8242</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -2808,13 +2850,13 @@
         <v>6623</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -2823,13 +2865,13 @@
         <v>14866</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2844,13 +2886,13 @@
         <v>162036</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>160</v>
@@ -2859,13 +2901,13 @@
         <v>167283</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>322</v>
@@ -2874,13 +2916,13 @@
         <v>329318</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2936,7 +2978,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2948,13 +2990,13 @@
         <v>1894</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -2966,10 +3008,10 @@
         <v>16</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -2978,13 +3020,13 @@
         <v>5837</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,13 +3041,13 @@
         <v>187376</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>195</v>
@@ -3017,10 +3059,10 @@
         <v>25</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
         <v>379</v>
@@ -3029,13 +3071,13 @@
         <v>387921</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,7 +3133,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3103,13 +3145,13 @@
         <v>17253</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
@@ -3118,13 +3160,13 @@
         <v>15530</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>33</v>
@@ -3133,13 +3175,13 @@
         <v>32783</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,13 +3196,13 @@
         <v>447072</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H23" s="7">
         <v>509</v>
@@ -3169,13 +3211,13 @@
         <v>523838</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M23" s="7">
         <v>945</v>
@@ -3184,13 +3226,13 @@
         <v>970909</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3246,7 +3288,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3258,13 +3300,13 @@
         <v>28620</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>72</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H25" s="7">
         <v>22</v>
@@ -3273,13 +3315,13 @@
         <v>22359</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M25" s="7">
         <v>50</v>
@@ -3288,13 +3330,13 @@
         <v>50979</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3309,13 +3351,13 @@
         <v>496932</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="H26" s="7">
         <v>543</v>
@@ -3324,13 +3366,13 @@
         <v>570053</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M26" s="7">
         <v>1037</v>
@@ -3339,13 +3381,13 @@
         <v>1066984</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3413,13 +3455,13 @@
         <v>84321</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H28" s="7">
         <v>95</v>
@@ -3428,13 +3470,13 @@
         <v>95091</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M28" s="7">
         <v>179</v>
@@ -3443,13 +3485,13 @@
         <v>179412</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3464,13 +3506,13 @@
         <v>2370421</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H29" s="7">
         <v>2584</v>
@@ -3479,13 +3521,13 @@
         <v>2645846</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M29" s="7">
         <v>4907</v>
@@ -3494,13 +3536,13 @@
         <v>5016267</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,7 +3598,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3580,7 +3622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB130AE8-900B-4DC0-8125-06E7299BAA68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1DD5D4-869B-4CD2-AEE5-BF6D1A32E48D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3597,7 +3639,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3702,39 +3744,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3747,39 +3789,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3792,39 +3834,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3841,13 +3883,13 @@
         <v>18013</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -3856,13 +3898,13 @@
         <v>11241</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M7" s="7">
         <v>28</v>
@@ -3871,7 +3913,7 @@
         <v>29254</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>183</v>
@@ -3898,7 +3940,7 @@
         <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>392</v>
@@ -3907,13 +3949,13 @@
         <v>426582</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>139</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>756</v>
@@ -3922,13 +3964,13 @@
         <v>814899</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,13 +4038,13 @@
         <v>7555</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -4011,13 +4053,13 @@
         <v>12906</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -4026,13 +4068,13 @@
         <v>20461</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,13 +4089,13 @@
         <v>286109</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H11" s="7">
         <v>292</v>
@@ -4062,13 +4104,13 @@
         <v>315846</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M11" s="7">
         <v>573</v>
@@ -4077,13 +4119,13 @@
         <v>601955</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4151,13 +4193,13 @@
         <v>18808</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>16</v>
+        <v>210</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -4166,13 +4208,13 @@
         <v>26564</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>30</v>
+        <v>213</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -4181,13 +4223,13 @@
         <v>45373</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4202,13 +4244,13 @@
         <v>544829</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>25</v>
+        <v>219</v>
       </c>
       <c r="H14" s="7">
         <v>524</v>
@@ -4217,13 +4259,13 @@
         <v>565490</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>39</v>
+        <v>222</v>
       </c>
       <c r="M14" s="7">
         <v>1038</v>
@@ -4232,13 +4274,13 @@
         <v>1110318</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,7 +4336,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4306,13 +4348,13 @@
         <v>5060</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -4321,13 +4363,13 @@
         <v>5843</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -4336,13 +4378,13 @@
         <v>10902</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4357,13 +4399,13 @@
         <v>186998</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="H17" s="7">
         <v>182</v>
@@ -4372,13 +4414,13 @@
         <v>188739</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="M17" s="7">
         <v>353</v>
@@ -4387,13 +4429,13 @@
         <v>375738</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4449,7 +4491,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4461,13 +4503,13 @@
         <v>6996</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>162</v>
+        <v>243</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>191</v>
+        <v>244</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>237</v>
+        <v>32</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -4476,13 +4518,13 @@
         <v>12361</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="M19" s="7">
         <v>18</v>
@@ -4491,13 +4533,13 @@
         <v>19358</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>242</v>
+        <v>122</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4512,13 +4554,13 @@
         <v>242977</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>172</v>
+        <v>250</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>244</v>
+        <v>40</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="H20" s="7">
         <v>243</v>
@@ -4527,13 +4569,13 @@
         <v>252469</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="M20" s="7">
         <v>474</v>
@@ -4542,13 +4584,13 @@
         <v>495445</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>250</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4604,7 +4646,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4616,13 +4658,13 @@
         <v>21798</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -4631,13 +4673,13 @@
         <v>16888</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>159</v>
+        <v>260</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="M22" s="7">
         <v>35</v>
@@ -4646,13 +4688,13 @@
         <v>38686</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>257</v>
+        <v>122</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,13 +4709,13 @@
         <v>553293</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="H23" s="7">
         <v>555</v>
@@ -4682,13 +4724,13 @@
         <v>609099</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>169</v>
+        <v>268</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="M23" s="7">
         <v>1074</v>
@@ -4697,13 +4739,13 @@
         <v>1162392</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>266</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4759,7 +4801,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4774,10 +4816,10 @@
         <v>30</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>267</v>
+        <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>128</v>
+        <v>273</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
@@ -4786,13 +4828,13 @@
         <v>27136</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>269</v>
+        <v>225</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>270</v>
+        <v>144</v>
       </c>
       <c r="M25" s="7">
         <v>43</v>
@@ -4801,13 +4843,13 @@
         <v>46300</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>271</v>
+        <v>86</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4825,10 +4867,10 @@
         <v>39</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>136</v>
+        <v>276</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>273</v>
+        <v>20</v>
       </c>
       <c r="H26" s="7">
         <v>622</v>
@@ -4837,13 +4879,13 @@
         <v>675158</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>275</v>
+        <v>151</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="M26" s="7">
         <v>1187</v>
@@ -4852,13 +4894,13 @@
         <v>1289899</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>278</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4926,7 +4968,7 @@
         <v>97394</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>279</v>
@@ -4956,7 +4998,7 @@
         <v>210334</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>284</v>
@@ -4977,7 +5019,7 @@
         <v>2817264</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>286</v>
@@ -4989,7 +5031,7 @@
         <v>2810</v>
       </c>
       <c r="I29" s="7">
-        <v>3033381</v>
+        <v>3033382</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>288</v>
@@ -5007,7 +5049,7 @@
         <v>5850646</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>291</v>
@@ -5040,7 +5082,7 @@
         <v>2915</v>
       </c>
       <c r="I30" s="7">
-        <v>3146321</v>
+        <v>3146322</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>28</v>
@@ -5069,7 +5111,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -5093,7 +5135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B4E657-B893-4515-993C-F19A7DCB1716}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64771CFC-F2E0-4C15-8448-0B43D0948F23}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5235,10 +5277,10 @@
         <v>297</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="M4" s="7">
         <v>31</v>
@@ -5247,10 +5289,10 @@
         <v>31897</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>301</v>
@@ -5289,7 +5331,7 @@
         <v>306</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>307</v>
+        <v>94</v>
       </c>
       <c r="M5" s="7">
         <v>429</v>
@@ -5298,13 +5340,13 @@
         <v>459654</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5378,7 +5420,7 @@
         <v>311</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>312</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -5387,13 +5429,13 @@
         <v>10274</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>272</v>
+        <v>315</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -5402,13 +5444,13 @@
         <v>18251</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>183</v>
+        <v>316</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>314</v>
+        <v>232</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>315</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,13 +5465,13 @@
         <v>355188</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>318</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H8" s="7">
         <v>362</v>
@@ -5438,13 +5480,13 @@
         <v>383053</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>277</v>
+        <v>321</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="M8" s="7">
         <v>696</v>
@@ -5453,13 +5495,13 @@
         <v>738241</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>190</v>
+        <v>323</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>321</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5527,13 +5569,13 @@
         <v>9079</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -5542,13 +5584,13 @@
         <v>9979</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -5557,13 +5599,13 @@
         <v>19058</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5575,16 +5617,16 @@
         <v>294</v>
       </c>
       <c r="D11" s="7">
-        <v>281428</v>
+        <v>281427</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H11" s="7">
         <v>296</v>
@@ -5593,13 +5635,13 @@
         <v>297785</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M11" s="7">
         <v>590</v>
@@ -5608,13 +5650,13 @@
         <v>579212</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5626,7 +5668,7 @@
         <v>303</v>
       </c>
       <c r="D12" s="7">
-        <v>290507</v>
+        <v>290506</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>28</v>
@@ -5682,13 +5724,13 @@
         <v>8231</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>192</v>
+        <v>344</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -5697,13 +5739,13 @@
         <v>9575</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>342</v>
+        <v>157</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>31</v>
+        <v>345</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>131</v>
+        <v>346</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -5712,13 +5754,13 @@
         <v>17805</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>323</v>
+        <v>125</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,13 +5775,13 @@
         <v>321816</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>199</v>
+        <v>350</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="H14" s="7">
         <v>313</v>
@@ -5748,13 +5790,13 @@
         <v>339286</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>347</v>
+        <v>167</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>139</v>
+        <v>352</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>41</v>
+        <v>353</v>
       </c>
       <c r="M14" s="7">
         <v>620</v>
@@ -5763,13 +5805,13 @@
         <v>661103</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>333</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5825,7 +5867,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5837,13 +5879,13 @@
         <v>6016</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -5852,13 +5894,13 @@
         <v>5337</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>72</v>
+        <v>359</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -5867,13 +5909,13 @@
         <v>11353</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>356</v>
+        <v>316</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5888,13 +5930,13 @@
         <v>113206</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="H17" s="7">
         <v>146</v>
@@ -5903,13 +5945,13 @@
         <v>140163</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>82</v>
+        <v>367</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="M17" s="7">
         <v>258</v>
@@ -5918,13 +5960,13 @@
         <v>253369</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5980,7 +6022,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5992,13 +6034,13 @@
         <v>3774</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -6007,13 +6049,13 @@
         <v>14450</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>327</v>
+        <v>375</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
@@ -6022,13 +6064,13 @@
         <v>18224</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>124</v>
+        <v>378</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6043,13 +6085,13 @@
         <v>229841</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="H20" s="7">
         <v>225</v>
@@ -6058,13 +6100,13 @@
         <v>232687</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>335</v>
+        <v>383</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="M20" s="7">
         <v>451</v>
@@ -6073,13 +6115,13 @@
         <v>462529</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>134</v>
+        <v>387</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6135,7 +6177,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6147,13 +6189,13 @@
         <v>6479</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>379</v>
+        <v>163</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -6162,13 +6204,13 @@
         <v>11247</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>381</v>
+        <v>193</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="M22" s="7">
         <v>16</v>
@@ -6180,10 +6222,10 @@
         <v>14</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>284</v>
+        <v>392</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6198,13 +6240,13 @@
         <v>435828</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>385</v>
+        <v>173</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="H23" s="7">
         <v>451</v>
@@ -6213,13 +6255,13 @@
         <v>475804</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>388</v>
+        <v>202</v>
       </c>
       <c r="M23" s="7">
         <v>831</v>
@@ -6231,10 +6273,10 @@
         <v>23</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>292</v>
+        <v>396</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6290,7 +6332,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6302,13 +6344,13 @@
         <v>21582</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>194</v>
+        <v>399</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>391</v>
+        <v>184</v>
       </c>
       <c r="H25" s="7">
         <v>22</v>
@@ -6317,13 +6359,13 @@
         <v>22944</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="M25" s="7">
         <v>43</v>
@@ -6332,13 +6374,13 @@
         <v>44526</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>94</v>
+        <v>403</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6353,28 +6395,28 @@
         <v>618670</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>397</v>
+        <v>191</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>203</v>
+        <v>406</v>
       </c>
       <c r="H26" s="7">
         <v>613</v>
       </c>
       <c r="I26" s="7">
-        <v>668397</v>
+        <v>668398</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="M26" s="7">
         <v>1208</v>
@@ -6383,13 +6425,13 @@
         <v>1287067</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>104</v>
+        <v>411</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6416,7 +6458,7 @@
         <v>635</v>
       </c>
       <c r="I27" s="7">
-        <v>691341</v>
+        <v>691342</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>28</v>
@@ -6457,13 +6499,13 @@
         <v>75765</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>402</v>
+        <v>215</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="H28" s="7">
         <v>101</v>
@@ -6475,10 +6517,10 @@
         <v>281</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>282</v>
+        <v>414</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>405</v>
+        <v>33</v>
       </c>
       <c r="M28" s="7">
         <v>174</v>
@@ -6487,13 +6529,13 @@
         <v>178841</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>162</v>
+        <v>416</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>241</v>
+        <v>417</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6508,13 +6550,13 @@
         <v>2588569</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>407</v>
+        <v>224</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="H29" s="7">
         <v>2626</v>
@@ -6526,25 +6568,25 @@
         <v>288</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>410</v>
+        <v>42</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>290</v>
+        <v>420</v>
       </c>
       <c r="M29" s="7">
         <v>5083</v>
       </c>
       <c r="N29" s="7">
-        <v>5352807</v>
+        <v>5352808</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>248</v>
+        <v>422</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>172</v>
+        <v>423</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6586,7 +6628,7 @@
         <v>5257</v>
       </c>
       <c r="N30" s="7">
-        <v>5531648</v>
+        <v>5531649</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>28</v>
@@ -6600,7 +6642,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -6624,7 +6666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60BF6074-E0E1-4A53-AF5D-41EF2CE519BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67C1FC7-B2E5-4134-B1AC-2140FE596535}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6641,7 +6683,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6748,13 +6790,13 @@
         <v>14259</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>162</v>
+        <v>426</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -6763,13 +6805,13 @@
         <v>17356</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -6778,13 +6820,13 @@
         <v>31615</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>418</v>
+        <v>262</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6799,13 +6841,13 @@
         <v>241011</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>172</v>
+        <v>434</v>
       </c>
       <c r="H5" s="7">
         <v>509</v>
@@ -6814,13 +6856,13 @@
         <v>252088</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M5" s="7">
         <v>815</v>
@@ -6829,13 +6871,13 @@
         <v>493100</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>426</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6903,13 +6945,13 @@
         <v>18321</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="H7" s="7">
         <v>37</v>
@@ -6918,13 +6960,13 @@
         <v>29899</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>431</v>
+        <v>274</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="M7" s="7">
         <v>52</v>
@@ -6933,13 +6975,13 @@
         <v>48220</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6954,13 +6996,13 @@
         <v>489183</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="H8" s="7">
         <v>659</v>
@@ -6969,13 +7011,13 @@
         <v>510195</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>441</v>
+        <v>277</v>
       </c>
       <c r="M8" s="7">
         <v>1015</v>
@@ -6984,13 +7026,13 @@
         <v>999378</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7058,13 +7100,13 @@
         <v>6389</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>447</v>
+        <v>212</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -7073,13 +7115,13 @@
         <v>6275</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -7088,13 +7130,13 @@
         <v>12665</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7109,13 +7151,13 @@
         <v>300944</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>455</v>
+        <v>220</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="H11" s="7">
         <v>508</v>
@@ -7124,13 +7166,13 @@
         <v>351971</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="M11" s="7">
         <v>847</v>
@@ -7139,13 +7181,13 @@
         <v>652914</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7213,13 +7255,13 @@
         <v>5554</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -7228,13 +7270,13 @@
         <v>7005</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>468</v>
+        <v>376</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -7243,13 +7285,13 @@
         <v>12559</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7264,13 +7306,13 @@
         <v>314096</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="H14" s="7">
         <v>584</v>
@@ -7279,13 +7321,13 @@
         <v>419147</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>476</v>
+        <v>385</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="M14" s="7">
         <v>869</v>
@@ -7294,13 +7336,13 @@
         <v>733243</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7356,7 +7398,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7368,13 +7410,13 @@
         <v>5310</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>481</v>
+        <v>414</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>482</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -7386,10 +7428,10 @@
         <v>30</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>76</v>
+        <v>488</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -7398,13 +7440,13 @@
         <v>12103</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>282</v>
+        <v>489</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7419,13 +7461,13 @@
         <v>179759</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>487</v>
+        <v>420</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>489</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>466</v>
@@ -7437,10 +7479,10 @@
         <v>39</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>84</v>
+        <v>491</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="M17" s="7">
         <v>723</v>
@@ -7449,13 +7491,13 @@
         <v>397891</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>290</v>
+        <v>493</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7511,7 +7553,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7523,13 +7565,13 @@
         <v>4908</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>32</v>
+        <v>497</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -7538,13 +7580,13 @@
         <v>3517</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>226</v>
+        <v>498</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>112</v>
+        <v>499</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -7553,13 +7595,13 @@
         <v>8425</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>282</v>
+        <v>501</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7574,13 +7616,13 @@
         <v>255869</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>40</v>
+        <v>503</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="H20" s="7">
         <v>434</v>
@@ -7589,13 +7631,13 @@
         <v>260691</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>236</v>
+        <v>505</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>506</v>
       </c>
       <c r="M20" s="7">
         <v>773</v>
@@ -7604,13 +7646,13 @@
         <v>516560</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>290</v>
+        <v>508</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7666,7 +7708,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7678,13 +7720,13 @@
         <v>21185</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>18</v>
+        <v>509</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>501</v>
+        <v>52</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="H22" s="7">
         <v>46</v>
@@ -7693,13 +7735,13 @@
         <v>39174</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>379</v>
+        <v>512</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="M22" s="7">
         <v>68</v>
@@ -7708,13 +7750,13 @@
         <v>60359</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>75</v>
+        <v>515</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>270</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7729,13 +7771,13 @@
         <v>586064</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>26</v>
+        <v>516</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>507</v>
+        <v>61</v>
       </c>
       <c r="H23" s="7">
         <v>877</v>
@@ -7744,13 +7786,13 @@
         <v>742535</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>385</v>
+        <v>520</v>
       </c>
       <c r="M23" s="7">
         <v>1436</v>
@@ -7759,13 +7801,13 @@
         <v>1328599</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>275</v>
+        <v>448</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>85</v>
+        <v>522</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7821,7 +7863,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7833,13 +7875,13 @@
         <v>30663</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>239</v>
+        <v>357</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>430</v>
+        <v>524</v>
       </c>
       <c r="H25" s="7">
         <v>40</v>
@@ -7848,13 +7890,13 @@
         <v>41405</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>526</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="M25" s="7">
         <v>66</v>
@@ -7863,13 +7905,13 @@
         <v>72068</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>514</v>
+        <v>390</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7884,13 +7926,13 @@
         <v>803622</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>439</v>
+        <v>530</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>247</v>
+        <v>366</v>
       </c>
       <c r="H26" s="7">
         <v>999</v>
@@ -7899,13 +7941,13 @@
         <v>810664</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>157</v>
+        <v>533</v>
       </c>
       <c r="M26" s="7">
         <v>1717</v>
@@ -7914,13 +7956,13 @@
         <v>1614286</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>520</v>
+        <v>395</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7988,13 +8030,13 @@
         <v>106588</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="H28" s="7">
         <v>181</v>
@@ -8003,13 +8045,13 @@
         <v>151425</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>344</v>
+        <v>537</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>525</v>
+        <v>209</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="M28" s="7">
         <v>275</v>
@@ -8018,13 +8060,13 @@
         <v>258013</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>256</v>
+        <v>330</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>163</v>
+        <v>540</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8039,13 +8081,13 @@
         <v>3170550</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="H29" s="7">
         <v>5036</v>
@@ -8054,13 +8096,13 @@
         <v>3565423</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>349</v>
+        <v>543</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>530</v>
+        <v>544</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>531</v>
+        <v>217</v>
       </c>
       <c r="M29" s="7">
         <v>8195</v>
@@ -8069,13 +8111,13 @@
         <v>6735973</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>171</v>
+        <v>546</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>264</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8131,7 +8173,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C07-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C07-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45606EBB-AFB1-4225-A2F2-A5BC7FD5B02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13E30805-C25F-4D33-8D29-2EB76C04A493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2F1BF847-9B91-47C3-AD4C-A4A6810B9D7C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{49BAF90B-7A78-4FA1-AF21-98FA17BDCC1C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="558">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -569,7 +569,40 @@
     <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2012 (Tasa respuesta: 86,84%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
   </si>
   <si>
     <t>4,43%</t>
@@ -668,633 +701,639 @@
     <t>97,9%</t>
   </si>
   <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
     <t>3,34%</t>
   </si>
   <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
   </si>
   <si>
     <t>2,84%</t>
   </si>
   <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
   </si>
   <si>
     <t>97,16%</t>
   </si>
   <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2016 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
     <t>96,44%</t>
   </si>
   <si>
@@ -1316,370 +1355,364 @@
     <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2023 (Tasa respuesta: 96,88%)</t>
   </si>
   <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
   </si>
   <si>
     <t>6,44%</t>
   </si>
   <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
   </si>
   <si>
     <t>93,56%</t>
   </si>
   <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
   </si>
   <si>
     <t>2,92%</t>
   </si>
   <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
   </si>
   <si>
     <t>97,08%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
   </si>
 </sst>
 </file>
@@ -2091,7 +2124,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E616BD-ECCB-447C-8D49-D6B8FA4B26ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F32C02-3422-4951-AA88-7EAA775A28C2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3622,7 +3655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1DD5D4-869B-4CD2-AEE5-BF6D1A32E48D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA62E9B9-58A6-4A14-A9CE-0811A0D48E70}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3740,43 +3773,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="D4" s="7">
+        <v>9398</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>176</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="I4" s="7">
+        <v>11647</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>176</v>
+        <v>90</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="N4" s="7">
+        <v>21045</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>176</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3785,43 +3824,49 @@
         <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>233</v>
+      </c>
+      <c r="D5" s="7">
+        <v>241162</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>212</v>
+      </c>
+      <c r="I5" s="7">
+        <v>237592</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>176</v>
+        <v>98</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>445</v>
+      </c>
+      <c r="N5" s="7">
+        <v>478755</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>43</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3830,43 +3875,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>241</v>
+      </c>
+      <c r="D6" s="7">
+        <v>250560</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>222</v>
+      </c>
+      <c r="I6" s="7">
+        <v>249239</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>463</v>
+      </c>
+      <c r="N6" s="7">
+        <v>499800</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>176</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,13 +3934,13 @@
         <v>18013</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -3898,13 +3949,13 @@
         <v>11241</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="M7" s="7">
         <v>28</v>
@@ -3916,10 +3967,10 @@
         <v>159</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3934,13 +3985,13 @@
         <v>388317</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="H8" s="7">
         <v>392</v>
@@ -3949,13 +4000,13 @@
         <v>426582</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="M8" s="7">
         <v>756</v>
@@ -3967,10 +4018,10 @@
         <v>168</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,13 +4089,13 @@
         <v>7555</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -4053,13 +4104,13 @@
         <v>12906</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -4068,13 +4119,13 @@
         <v>20461</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4089,13 +4140,13 @@
         <v>286109</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="H11" s="7">
         <v>292</v>
@@ -4104,13 +4155,13 @@
         <v>315846</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="M11" s="7">
         <v>573</v>
@@ -4119,13 +4170,13 @@
         <v>601955</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,49 +4238,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>18808</v>
+        <v>9410</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="H13" s="7">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I13" s="7">
-        <v>26564</v>
+        <v>14917</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="M13" s="7">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="N13" s="7">
-        <v>45373</v>
+        <v>24327</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,49 +4289,49 @@
         <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>514</v>
+        <v>281</v>
       </c>
       <c r="D14" s="7">
-        <v>544829</v>
+        <v>303667</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="H14" s="7">
-        <v>524</v>
+        <v>312</v>
       </c>
       <c r="I14" s="7">
-        <v>565490</v>
+        <v>327898</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="M14" s="7">
-        <v>1038</v>
+        <v>593</v>
       </c>
       <c r="N14" s="7">
-        <v>1110318</v>
+        <v>631564</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4289,10 +4340,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>530</v>
+        <v>289</v>
       </c>
       <c r="D15" s="7">
-        <v>563637</v>
+        <v>313077</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>28</v>
@@ -4304,10 +4355,10 @@
         <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>548</v>
+        <v>326</v>
       </c>
       <c r="I15" s="7">
-        <v>592054</v>
+        <v>342815</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>28</v>
@@ -4319,10 +4370,10 @@
         <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>1078</v>
+        <v>615</v>
       </c>
       <c r="N15" s="7">
-        <v>1155691</v>
+        <v>655891</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>28</v>
@@ -4348,13 +4399,13 @@
         <v>5060</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -4363,13 +4414,13 @@
         <v>5843</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -4378,13 +4429,13 @@
         <v>10902</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4399,13 +4450,13 @@
         <v>186998</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="H17" s="7">
         <v>182</v>
@@ -4414,13 +4465,13 @@
         <v>188739</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="M17" s="7">
         <v>353</v>
@@ -4429,13 +4480,13 @@
         <v>375738</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4503,10 +4554,10 @@
         <v>6996</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>32</v>
@@ -4518,13 +4569,13 @@
         <v>12361</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>245</v>
+        <v>179</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="M19" s="7">
         <v>18</v>
@@ -4533,13 +4584,13 @@
         <v>19358</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>122</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,13 +4605,13 @@
         <v>242977</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="H20" s="7">
         <v>243</v>
@@ -4569,13 +4620,13 @@
         <v>252469</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>252</v>
+        <v>185</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="M20" s="7">
         <v>474</v>
@@ -4584,10 +4635,10 @@
         <v>495445</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>132</v>
@@ -4658,13 +4709,13 @@
         <v>21798</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -4673,13 +4724,13 @@
         <v>16888</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="M22" s="7">
         <v>35</v>
@@ -4688,13 +4739,13 @@
         <v>38686</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>122</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4709,13 +4760,13 @@
         <v>553293</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="H23" s="7">
         <v>555</v>
@@ -4724,13 +4775,13 @@
         <v>609099</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="M23" s="7">
         <v>1074</v>
@@ -4739,10 +4790,10 @@
         <v>1162392</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>132</v>
@@ -4819,7 +4870,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
@@ -4828,10 +4879,10 @@
         <v>27136</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>144</v>
@@ -4849,7 +4900,7 @@
         <v>86</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4867,7 +4918,7 @@
         <v>39</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>20</v>
@@ -4879,13 +4930,13 @@
         <v>675158</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>151</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="M26" s="7">
         <v>1187</v>
@@ -4897,7 +4948,7 @@
         <v>168</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>96</v>
@@ -4968,13 +5019,13 @@
         <v>97394</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>209</v>
+        <v>290</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="H28" s="7">
         <v>105</v>
@@ -4983,13 +5034,13 @@
         <v>112940</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="M28" s="7">
         <v>196</v>
@@ -5001,10 +5052,10 @@
         <v>159</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,31 +5067,31 @@
         <v>2645</v>
       </c>
       <c r="D29" s="7">
-        <v>2817264</v>
+        <v>2817265</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>217</v>
+        <v>298</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="H29" s="7">
         <v>2810</v>
       </c>
       <c r="I29" s="7">
-        <v>3033382</v>
+        <v>3033381</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="M29" s="7">
         <v>5455</v>
@@ -5052,10 +5103,10 @@
         <v>168</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5067,7 +5118,7 @@
         <v>2736</v>
       </c>
       <c r="D30" s="7">
-        <v>2914658</v>
+        <v>2914659</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>28</v>
@@ -5082,7 +5133,7 @@
         <v>2915</v>
       </c>
       <c r="I30" s="7">
-        <v>3146322</v>
+        <v>3146321</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>28</v>
@@ -5135,7 +5186,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64771CFC-F2E0-4C15-8448-0B43D0948F23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBFFF01F-7AA2-40E1-AA65-06CA5B3C1485}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5152,7 +5203,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5259,13 +5310,13 @@
         <v>12627</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -5274,13 +5325,13 @@
         <v>19270</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>85</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="M4" s="7">
         <v>31</v>
@@ -5289,13 +5340,13 @@
         <v>31897</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5310,13 +5361,13 @@
         <v>232591</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="H5" s="7">
         <v>220</v>
@@ -5325,10 +5376,10 @@
         <v>227064</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>94</v>
@@ -5340,13 +5391,13 @@
         <v>459654</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5414,13 +5465,13 @@
         <v>7977</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -5429,13 +5480,13 @@
         <v>10274</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -5444,13 +5495,13 @@
         <v>18251</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5465,13 +5516,13 @@
         <v>355188</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="H8" s="7">
         <v>362</v>
@@ -5480,13 +5531,13 @@
         <v>383053</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="M8" s="7">
         <v>696</v>
@@ -5495,13 +5546,13 @@
         <v>738241</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5569,13 +5620,13 @@
         <v>9079</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -5584,13 +5635,13 @@
         <v>9979</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -5599,13 +5650,13 @@
         <v>19058</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5617,16 +5668,16 @@
         <v>294</v>
       </c>
       <c r="D11" s="7">
-        <v>281427</v>
+        <v>281428</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="H11" s="7">
         <v>296</v>
@@ -5635,13 +5686,13 @@
         <v>297785</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="M11" s="7">
         <v>590</v>
@@ -5650,13 +5701,13 @@
         <v>579212</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5668,7 +5719,7 @@
         <v>303</v>
       </c>
       <c r="D12" s="7">
-        <v>290506</v>
+        <v>290507</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>28</v>
@@ -5724,13 +5775,13 @@
         <v>8231</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -5742,10 +5793,10 @@
         <v>157</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -5754,13 +5805,13 @@
         <v>17805</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>125</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5775,13 +5826,13 @@
         <v>321816</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="H14" s="7">
         <v>313</v>
@@ -5793,10 +5844,10 @@
         <v>167</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="M14" s="7">
         <v>620</v>
@@ -5805,10 +5856,10 @@
         <v>661103</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>135</v>
@@ -5879,13 +5930,13 @@
         <v>6016</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>357</v>
+        <v>227</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -5894,13 +5945,13 @@
         <v>5337</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -5909,13 +5960,13 @@
         <v>11353</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5930,13 +5981,13 @@
         <v>113206</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>366</v>
+        <v>237</v>
       </c>
       <c r="H17" s="7">
         <v>146</v>
@@ -5945,13 +5996,13 @@
         <v>140163</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="M17" s="7">
         <v>258</v>
@@ -5960,13 +6011,13 @@
         <v>253369</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6034,13 +6085,13 @@
         <v>3774</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -6049,13 +6100,13 @@
         <v>14450</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
@@ -6064,13 +6115,13 @@
         <v>18224</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6085,13 +6136,13 @@
         <v>229841</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="H20" s="7">
         <v>225</v>
@@ -6100,13 +6151,13 @@
         <v>232687</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="M20" s="7">
         <v>451</v>
@@ -6115,13 +6166,13 @@
         <v>462529</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6189,7 +6240,7 @@
         <v>6479</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
@@ -6204,13 +6255,13 @@
         <v>11247</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="M22" s="7">
         <v>16</v>
@@ -6222,10 +6273,10 @@
         <v>14</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6240,7 +6291,7 @@
         <v>435828</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>173</v>
@@ -6255,13 +6306,13 @@
         <v>475804</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="M23" s="7">
         <v>831</v>
@@ -6273,10 +6324,10 @@
         <v>23</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6344,13 +6395,13 @@
         <v>21582</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="H25" s="7">
         <v>22</v>
@@ -6359,13 +6410,13 @@
         <v>22944</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="M25" s="7">
         <v>43</v>
@@ -6374,13 +6425,13 @@
         <v>44526</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>209</v>
+        <v>290</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6395,28 +6446,28 @@
         <v>618670</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="H26" s="7">
         <v>613</v>
       </c>
       <c r="I26" s="7">
-        <v>668398</v>
+        <v>668397</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="M26" s="7">
         <v>1208</v>
@@ -6425,13 +6476,13 @@
         <v>1287067</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>217</v>
+        <v>298</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6458,7 +6509,7 @@
         <v>635</v>
       </c>
       <c r="I27" s="7">
-        <v>691342</v>
+        <v>691341</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>28</v>
@@ -6499,13 +6550,13 @@
         <v>75765</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>215</v>
+        <v>423</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="H28" s="7">
         <v>101</v>
@@ -6514,10 +6565,10 @@
         <v>103076</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>33</v>
@@ -6529,13 +6580,13 @@
         <v>178841</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6547,16 +6598,16 @@
         <v>2457</v>
       </c>
       <c r="D29" s="7">
-        <v>2588569</v>
+        <v>2588568</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>224</v>
+        <v>430</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="H29" s="7">
         <v>2626</v>
@@ -6565,28 +6616,28 @@
         <v>2764239</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="M29" s="7">
         <v>5083</v>
       </c>
       <c r="N29" s="7">
-        <v>5352808</v>
+        <v>5352807</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6598,7 +6649,7 @@
         <v>2530</v>
       </c>
       <c r="D30" s="7">
-        <v>2664334</v>
+        <v>2664333</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>28</v>
@@ -6628,7 +6679,7 @@
         <v>5257</v>
       </c>
       <c r="N30" s="7">
-        <v>5531649</v>
+        <v>5531648</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>28</v>
@@ -6666,7 +6717,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67C1FC7-B2E5-4134-B1AC-2140FE596535}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85AF56D9-11D2-46F6-94C6-505EBFD11A16}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6683,7 +6734,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6787,46 +6838,46 @@
         <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>14259</v>
+        <v>21354</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>426</v>
+        <v>274</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
       </c>
       <c r="I4" s="7">
-        <v>17356</v>
+        <v>19605</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
       </c>
       <c r="N4" s="7">
-        <v>31615</v>
+        <v>40959</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>430</v>
+        <v>190</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>262</v>
+        <v>442</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6838,46 +6889,46 @@
         <v>306</v>
       </c>
       <c r="D5" s="7">
-        <v>241011</v>
+        <v>284076</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>434</v>
+        <v>282</v>
       </c>
       <c r="H5" s="7">
         <v>509</v>
       </c>
       <c r="I5" s="7">
-        <v>252088</v>
+        <v>268002</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="M5" s="7">
         <v>815</v>
       </c>
       <c r="N5" s="7">
-        <v>493100</v>
+        <v>552078</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>437</v>
+        <v>197</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>269</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6889,7 +6940,7 @@
         <v>317</v>
       </c>
       <c r="D6" s="7">
-        <v>255270</v>
+        <v>305430</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>28</v>
@@ -6904,7 +6955,7 @@
         <v>531</v>
       </c>
       <c r="I6" s="7">
-        <v>269444</v>
+        <v>287607</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>28</v>
@@ -6919,7 +6970,7 @@
         <v>848</v>
       </c>
       <c r="N6" s="7">
-        <v>524715</v>
+        <v>593037</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>28</v>
@@ -6942,46 +6993,46 @@
         <v>15</v>
       </c>
       <c r="D7" s="7">
-        <v>18321</v>
+        <v>17747</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>440</v>
+        <v>16</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="H7" s="7">
         <v>37</v>
       </c>
       <c r="I7" s="7">
-        <v>29899</v>
+        <v>27756</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>274</v>
+        <v>453</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="M7" s="7">
         <v>52</v>
       </c>
       <c r="N7" s="7">
-        <v>48220</v>
+        <v>45503</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>445</v>
+        <v>274</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6993,46 +7044,46 @@
         <v>356</v>
       </c>
       <c r="D8" s="7">
-        <v>489183</v>
+        <v>489237</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>449</v>
+        <v>25</v>
       </c>
       <c r="H8" s="7">
         <v>659</v>
       </c>
       <c r="I8" s="7">
-        <v>510195</v>
+        <v>473792</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>277</v>
+        <v>461</v>
       </c>
       <c r="M8" s="7">
         <v>1015</v>
       </c>
       <c r="N8" s="7">
-        <v>999378</v>
+        <v>963029</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>454</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7044,7 +7095,7 @@
         <v>371</v>
       </c>
       <c r="D9" s="7">
-        <v>507504</v>
+        <v>506984</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>28</v>
@@ -7059,7 +7110,7 @@
         <v>696</v>
       </c>
       <c r="I9" s="7">
-        <v>540094</v>
+        <v>501548</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>28</v>
@@ -7074,7 +7125,7 @@
         <v>1067</v>
       </c>
       <c r="N9" s="7">
-        <v>1047598</v>
+        <v>1008532</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>28</v>
@@ -7097,46 +7148,46 @@
         <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>6389</v>
+        <v>6342</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>212</v>
+        <v>126</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
       </c>
       <c r="I10" s="7">
-        <v>6275</v>
+        <v>5884</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
       </c>
       <c r="N10" s="7">
-        <v>12665</v>
+        <v>12226</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>462</v>
+        <v>427</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7148,46 +7199,46 @@
         <v>339</v>
       </c>
       <c r="D11" s="7">
-        <v>300944</v>
+        <v>294850</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>220</v>
+        <v>134</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="H11" s="7">
         <v>508</v>
       </c>
       <c r="I11" s="7">
-        <v>351971</v>
+        <v>329391</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="M11" s="7">
         <v>847</v>
       </c>
       <c r="N11" s="7">
-        <v>652914</v>
+        <v>624241</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>469</v>
+        <v>434</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7199,7 +7250,7 @@
         <v>345</v>
       </c>
       <c r="D12" s="7">
-        <v>307333</v>
+        <v>301192</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>28</v>
@@ -7214,7 +7265,7 @@
         <v>517</v>
       </c>
       <c r="I12" s="7">
-        <v>358246</v>
+        <v>335275</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>28</v>
@@ -7229,7 +7280,7 @@
         <v>862</v>
       </c>
       <c r="N12" s="7">
-        <v>665579</v>
+        <v>636467</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>28</v>
@@ -7252,46 +7303,46 @@
         <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>5554</v>
+        <v>5389</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
       </c>
       <c r="I13" s="7">
-        <v>7005</v>
+        <v>6530</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>376</v>
+        <v>294</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
       </c>
       <c r="N13" s="7">
-        <v>12559</v>
+        <v>11919</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7303,46 +7354,46 @@
         <v>285</v>
       </c>
       <c r="D14" s="7">
-        <v>314096</v>
+        <v>304731</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="H14" s="7">
         <v>584</v>
       </c>
       <c r="I14" s="7">
-        <v>419147</v>
+        <v>466935</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>385</v>
+        <v>303</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="M14" s="7">
         <v>869</v>
       </c>
       <c r="N14" s="7">
-        <v>733243</v>
+        <v>771666</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7354,7 +7405,7 @@
         <v>288</v>
       </c>
       <c r="D15" s="7">
-        <v>319650</v>
+        <v>310120</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>28</v>
@@ -7369,7 +7420,7 @@
         <v>594</v>
       </c>
       <c r="I15" s="7">
-        <v>426152</v>
+        <v>473465</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>28</v>
@@ -7384,7 +7435,7 @@
         <v>882</v>
       </c>
       <c r="N15" s="7">
-        <v>745802</v>
+        <v>783585</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>28</v>
@@ -7407,46 +7458,46 @@
         <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>5310</v>
+        <v>4857</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>414</v>
+        <v>124</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>89</v>
+        <v>494</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>473</v>
+        <v>495</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
       </c>
       <c r="I16" s="7">
-        <v>6793</v>
+        <v>5846</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>30</v>
+        <v>496</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
       </c>
       <c r="N16" s="7">
-        <v>12103</v>
+        <v>10702</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>474</v>
+        <v>383</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7458,46 +7509,46 @@
         <v>257</v>
       </c>
       <c r="D17" s="7">
-        <v>179759</v>
+        <v>163572</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>420</v>
+        <v>133</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>480</v>
+        <v>499</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>500</v>
       </c>
       <c r="H17" s="7">
         <v>466</v>
       </c>
       <c r="I17" s="7">
-        <v>218132</v>
+        <v>196446</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>39</v>
+        <v>501</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="M17" s="7">
         <v>723</v>
       </c>
       <c r="N17" s="7">
-        <v>397891</v>
+        <v>360019</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>482</v>
+        <v>391</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7509,7 +7560,7 @@
         <v>263</v>
       </c>
       <c r="D18" s="7">
-        <v>185069</v>
+        <v>168429</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>28</v>
@@ -7524,7 +7575,7 @@
         <v>477</v>
       </c>
       <c r="I18" s="7">
-        <v>224925</v>
+        <v>202292</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>28</v>
@@ -7539,7 +7590,7 @@
         <v>740</v>
       </c>
       <c r="N18" s="7">
-        <v>409994</v>
+        <v>370721</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>28</v>
@@ -7562,46 +7613,46 @@
         <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>4908</v>
+        <v>4695</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
       </c>
       <c r="I19" s="7">
-        <v>3517</v>
+        <v>3230</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>489</v>
+        <v>509</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
       </c>
       <c r="N19" s="7">
-        <v>8425</v>
+        <v>7926</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>500</v>
+        <v>125</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7613,46 +7664,46 @@
         <v>339</v>
       </c>
       <c r="D20" s="7">
-        <v>255869</v>
+        <v>249037</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="H20" s="7">
         <v>434</v>
       </c>
       <c r="I20" s="7">
-        <v>260691</v>
+        <v>243120</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>493</v>
+        <v>515</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="M20" s="7">
         <v>773</v>
       </c>
       <c r="N20" s="7">
-        <v>516560</v>
+        <v>492156</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>507</v>
+        <v>135</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7664,7 +7715,7 @@
         <v>344</v>
       </c>
       <c r="D21" s="7">
-        <v>260777</v>
+        <v>253732</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>28</v>
@@ -7679,7 +7730,7 @@
         <v>440</v>
       </c>
       <c r="I21" s="7">
-        <v>264208</v>
+        <v>246350</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>28</v>
@@ -7694,7 +7745,7 @@
         <v>784</v>
       </c>
       <c r="N21" s="7">
-        <v>524985</v>
+        <v>500082</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>28</v>
@@ -7717,46 +7768,46 @@
         <v>22</v>
       </c>
       <c r="D22" s="7">
-        <v>21185</v>
+        <v>21073</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>52</v>
+        <v>519</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="H22" s="7">
         <v>46</v>
       </c>
       <c r="I22" s="7">
-        <v>39174</v>
+        <v>36136</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="M22" s="7">
         <v>68</v>
       </c>
       <c r="N22" s="7">
-        <v>60359</v>
+        <v>57208</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>515</v>
+        <v>258</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>441</v>
+        <v>525</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7768,46 +7819,46 @@
         <v>559</v>
       </c>
       <c r="D23" s="7">
-        <v>586064</v>
+        <v>578622</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>61</v>
+        <v>528</v>
       </c>
       <c r="H23" s="7">
         <v>877</v>
       </c>
       <c r="I23" s="7">
-        <v>742535</v>
+        <v>792229</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="M23" s="7">
         <v>1436</v>
       </c>
       <c r="N23" s="7">
-        <v>1328599</v>
+        <v>1370852</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>448</v>
+        <v>533</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>522</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7819,7 +7870,7 @@
         <v>581</v>
       </c>
       <c r="D24" s="7">
-        <v>607249</v>
+        <v>599695</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>28</v>
@@ -7834,7 +7885,7 @@
         <v>923</v>
       </c>
       <c r="I24" s="7">
-        <v>781709</v>
+        <v>828365</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>28</v>
@@ -7849,7 +7900,7 @@
         <v>1504</v>
       </c>
       <c r="N24" s="7">
-        <v>1388958</v>
+        <v>1428060</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>28</v>
@@ -7872,46 +7923,46 @@
         <v>26</v>
       </c>
       <c r="D25" s="7">
-        <v>30663</v>
+        <v>26064</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>523</v>
+        <v>426</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>357</v>
+        <v>494</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="H25" s="7">
         <v>40</v>
       </c>
       <c r="I25" s="7">
-        <v>41405</v>
+        <v>33371</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>526</v>
+        <v>290</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="M25" s="7">
         <v>66</v>
       </c>
       <c r="N25" s="7">
-        <v>72068</v>
+        <v>59436</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>390</v>
+        <v>537</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>501</v>
+        <v>538</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7923,46 +7974,46 @@
         <v>718</v>
       </c>
       <c r="D26" s="7">
-        <v>803622</v>
+        <v>882575</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>529</v>
+        <v>433</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>366</v>
+        <v>500</v>
       </c>
       <c r="H26" s="7">
         <v>999</v>
       </c>
       <c r="I26" s="7">
-        <v>810664</v>
+        <v>670553</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>533</v>
+        <v>298</v>
       </c>
       <c r="M26" s="7">
         <v>1717</v>
       </c>
       <c r="N26" s="7">
-        <v>1614286</v>
+        <v>1553127</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>395</v>
+        <v>543</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>508</v>
+        <v>545</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7974,7 +8025,7 @@
         <v>744</v>
       </c>
       <c r="D27" s="7">
-        <v>834285</v>
+        <v>908639</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>28</v>
@@ -7989,7 +8040,7 @@
         <v>1039</v>
       </c>
       <c r="I27" s="7">
-        <v>852069</v>
+        <v>703924</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>28</v>
@@ -8004,7 +8055,7 @@
         <v>1783</v>
       </c>
       <c r="N27" s="7">
-        <v>1686354</v>
+        <v>1612563</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>28</v>
@@ -8027,46 +8078,46 @@
         <v>94</v>
       </c>
       <c r="D28" s="7">
-        <v>106588</v>
+        <v>107520</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>459</v>
+        <v>546</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>535</v>
+        <v>389</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="H28" s="7">
         <v>181</v>
       </c>
       <c r="I28" s="7">
-        <v>151425</v>
+        <v>138358</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>209</v>
+        <v>549</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>538</v>
+        <v>129</v>
       </c>
       <c r="M28" s="7">
         <v>275</v>
       </c>
       <c r="N28" s="7">
-        <v>258013</v>
+        <v>245878</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>330</v>
+        <v>551</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8078,46 +8129,46 @@
         <v>3159</v>
       </c>
       <c r="D29" s="7">
-        <v>3170550</v>
+        <v>3246701</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>466</v>
+        <v>552</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>542</v>
+        <v>398</v>
       </c>
       <c r="H29" s="7">
         <v>5036</v>
       </c>
       <c r="I29" s="7">
-        <v>3565423</v>
+        <v>3440469</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>544</v>
+        <v>137</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>217</v>
+        <v>555</v>
       </c>
       <c r="M29" s="7">
         <v>8195</v>
       </c>
       <c r="N29" s="7">
-        <v>6735973</v>
+        <v>6687170</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>339</v>
+        <v>557</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8129,7 +8180,7 @@
         <v>3253</v>
       </c>
       <c r="D30" s="7">
-        <v>3277138</v>
+        <v>3354221</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>28</v>
@@ -8144,7 +8195,7 @@
         <v>5217</v>
       </c>
       <c r="I30" s="7">
-        <v>3716848</v>
+        <v>3578827</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>28</v>
@@ -8159,7 +8210,7 @@
         <v>8470</v>
       </c>
       <c r="N30" s="7">
-        <v>6993986</v>
+        <v>6933048</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>28</v>
